--- a/App/JungeAkademie/modules.xlsx
+++ b/App/JungeAkademie/modules.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="0" windowWidth="22092" windowHeight="9972"/>
+    <workbookView xWindow="7584" yWindow="0" windowWidth="22092" windowHeight="9972"/>
   </bookViews>
   <sheets>
-    <sheet name="Modules" sheetId="3" r:id="rId1"/>
+    <sheet name="modules" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">#REF!</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="1464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2671" uniqueCount="1462">
   <si>
     <t>Mathematik</t>
   </si>
@@ -663,9 +663,6 @@
     <t>Infrastruktur</t>
   </si>
   <si>
-    <t>Genehmigunsverfahren</t>
-  </si>
-  <si>
     <t>Bürgerbeteiligung II</t>
   </si>
   <si>
@@ -878,9 +875,6 @@
 1) Dr. Alexander Krause: Palais Pringsheim – Führerbau – Musikhochschule
 2) Karlheinz Kümmel: Die Luftschutzanlagen der Parteigebäude am Königsplatz
 3) Führung durch das Gebäude Arcisstr. 12 (Historische Räume und Luftschutzbunker)</t>
-  </si>
-  <si>
-    <t>NS</t>
   </si>
   <si>
     <t>Nationalsozialismus</t>
@@ -1159,9 +1153,6 @@
   </si>
   <si>
     <t>Aktive Teilnahme und Textarbeit (3-6 Seiten) zu den Seminarinhalten (ECTS: 2)</t>
-  </si>
-  <si>
-    <t>Konfliktmanagment</t>
   </si>
   <si>
     <t>Kategorisierung</t>
@@ -1513,9 +1504,6 @@
     <t>Schriftliche Selbstreflexion (ECTS: 1)
 Dieser Kurs findet im Modul "Selbstkompetenz intensiv" statt.
 Bitte beachten Sie, dass Sie während Ihres Studiums nur einen Kurs aus diesem Modul einbringen können. Sollten Sie weitere Kurse aus dem Modul "Selbstkompetenz intensiv" belegen, erhalten Sie dafür eine Teilnahmebestätigung.</t>
-  </si>
-  <si>
-    <t>Meditaion</t>
   </si>
   <si>
     <t>Yoga</t>
@@ -3117,9 +3105,6 @@
     <t>Referat (30 min) + aktive Teilnahme (ECTS: 2); MA WTPhil ED0151: Modulprüfung: vertiefte Seminararbeit (ECTS: 5)</t>
   </si>
   <si>
-    <t>Maschine</t>
-  </si>
-  <si>
     <t>Arbeitsplatz</t>
   </si>
   <si>
@@ -5190,12 +5175,21 @@
   <si>
     <t>Responsible Governance in Science, Technology and Innovation, Part 1</t>
   </si>
+  <si>
+    <t>Genehmigungsverfahren</t>
+  </si>
+  <si>
+    <t>Konfliktmanagement</t>
+  </si>
+  <si>
+    <t>Meditation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5242,6 +5236,13 @@
       <color indexed="64"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5315,7 +5316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5361,6 +5362,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5627,7 +5629,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="K181" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:R223"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5640,8 +5644,8 @@
     <col min="9" max="9" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="255.69921875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="27.8984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.59765625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.296875" bestFit="1" customWidth="1"/>
@@ -6174,7 +6178,7 @@
         <v>137</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>19</v>
@@ -6454,7 +6458,7 @@
         <v>190</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>191</v>
+        <v>1459</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>186</v>
@@ -6462,19 +6466,19 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
         <v>181</v>
       </c>
       <c r="C18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" t="s">
         <v>193</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>194</v>
-      </c>
-      <c r="E18" t="s">
-        <v>195</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -6486,13 +6490,13 @@
         <v>54</v>
       </c>
       <c r="J18" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="K18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>197</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>89</v>
@@ -6501,45 +6505,45 @@
         <v>189</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>191</v>
+        <v>1459</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s">
         <v>199</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
         <v>200</v>
-      </c>
-      <c r="D19" t="s">
-        <v>201</v>
       </c>
       <c r="G19">
         <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I19" t="s">
         <v>54</v>
       </c>
       <c r="J19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="K19" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="3" t="s">
         <v>25</v>
@@ -6550,16 +6554,16 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" t="s">
         <v>206</v>
       </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>207</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>208</v>
-      </c>
-      <c r="E20" t="s">
-        <v>209</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -6571,16 +6575,16 @@
         <v>64</v>
       </c>
       <c r="J20" t="s">
+        <v>209</v>
+      </c>
+      <c r="K20" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="K20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>212</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>29</v>
@@ -6592,31 +6596,31 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" t="s">
         <v>213</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>214</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>215</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>216</v>
-      </c>
-      <c r="F21" t="s">
-        <v>217</v>
       </c>
       <c r="G21">
         <v>1.5</v>
       </c>
       <c r="H21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I21" t="s">
         <v>54</v>
       </c>
       <c r="J21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
         <v>66</v>
@@ -6637,7 +6641,7 @@
         <v>6</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>13</v>
@@ -6645,19 +6649,19 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B22" t="s">
         <v>220</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
         <v>221</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>222</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>223</v>
-      </c>
-      <c r="F22" t="s">
-        <v>224</v>
       </c>
       <c r="G22">
         <v>0.5</v>
@@ -6669,10 +6673,10 @@
         <v>64</v>
       </c>
       <c r="J22" t="s">
+        <v>224</v>
+      </c>
+      <c r="K22" t="s">
         <v>225</v>
-      </c>
-      <c r="K22" t="s">
-        <v>226</v>
       </c>
       <c r="L22">
         <v>8</v>
@@ -6684,13 +6688,13 @@
         <v>18</v>
       </c>
       <c r="O22" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>41</v>
@@ -6698,34 +6702,34 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B23" t="s">
         <v>230</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>231</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>232</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>233</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>234</v>
-      </c>
-      <c r="F23" t="s">
-        <v>235</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I23" t="s">
         <v>54</v>
       </c>
       <c r="J23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K23" t="s">
         <v>66</v>
@@ -6737,33 +6741,33 @@
         <v>15</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>179</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>68</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" t="s">
         <v>239</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>240</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>241</v>
-      </c>
-      <c r="D24" t="s">
-        <v>242</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -6775,7 +6779,7 @@
         <v>54</v>
       </c>
       <c r="J24" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K24" t="s">
         <v>66</v>
@@ -6784,31 +6788,31 @@
         <v>25</v>
       </c>
       <c r="N24" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O24" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" t="s">
         <v>247</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>248</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>249</v>
-      </c>
-      <c r="D25" t="s">
-        <v>250</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -6820,7 +6824,7 @@
         <v>54</v>
       </c>
       <c r="J25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
         <v>66</v>
@@ -6838,19 +6842,19 @@
         <v>2</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="B26" t="s">
         <v>253</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>254</v>
-      </c>
-      <c r="D26" t="s">
-        <v>255</v>
       </c>
       <c r="G26">
         <v>0.5</v>
@@ -6868,39 +6872,36 @@
         <v>25</v>
       </c>
       <c r="N26" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>257</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q26" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" t="s">
+        <v>260</v>
+      </c>
+      <c r="C27" t="s">
         <v>261</v>
       </c>
-      <c r="B27" t="s">
+      <c r="D27" t="s">
         <v>262</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E27" t="s">
         <v>263</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>264</v>
-      </c>
-      <c r="E27" t="s">
-        <v>265</v>
-      </c>
-      <c r="F27" t="s">
-        <v>266</v>
       </c>
       <c r="G27">
         <v>1.5</v>
@@ -6930,10 +6931,10 @@
         <v>119</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>42</v>
@@ -6941,31 +6942,31 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>268</v>
+      </c>
+      <c r="D28" t="s">
         <v>269</v>
       </c>
-      <c r="B28" t="s">
-        <v>214</v>
-      </c>
-      <c r="C28" t="s">
-        <v>270</v>
-      </c>
-      <c r="D28" t="s">
-        <v>271</v>
-      </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G28">
         <v>1.5</v>
       </c>
       <c r="H28" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I28" t="s">
         <v>54</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K28" t="s">
         <v>66</v>
@@ -6980,10 +6981,10 @@
         <v>80</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="Q28" s="3" t="s">
         <v>81</v>
@@ -6992,16 +6993,16 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s">
         <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D29" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -7013,7 +7014,7 @@
         <v>54</v>
       </c>
       <c r="J29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
         <v>66</v>
@@ -7025,46 +7026,46 @@
         <v>20</v>
       </c>
       <c r="N29" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="B30" t="s">
+        <v>281</v>
+      </c>
+      <c r="D30" t="s">
         <v>282</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>283</v>
       </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>284</v>
-      </c>
-      <c r="E30" t="s">
-        <v>285</v>
-      </c>
-      <c r="F30" t="s">
-        <v>286</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I30" t="s">
         <v>64</v>
       </c>
       <c r="J30" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K30" t="s">
         <v>66</v>
@@ -7076,33 +7077,33 @@
         <v>20</v>
       </c>
       <c r="N30" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="O30" s="3" t="s">
+      <c r="Q30" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="P30" s="3" t="s">
+      <c r="R30" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="Q30" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="R30" s="3" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B31" t="s">
+        <v>293</v>
+      </c>
+      <c r="C31" t="s">
         <v>294</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>295</v>
-      </c>
-      <c r="C31" t="s">
-        <v>296</v>
-      </c>
-      <c r="D31" t="s">
-        <v>297</v>
       </c>
       <c r="G31">
         <v>1.5</v>
@@ -7114,19 +7115,19 @@
         <v>64</v>
       </c>
       <c r="J31" t="s">
+        <v>296</v>
+      </c>
+      <c r="K31" t="s">
+        <v>225</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O31" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="K31" t="s">
-        <v>226</v>
-      </c>
-      <c r="N31" s="3" t="s">
+      <c r="P31" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="Q31" s="3" t="s">
         <v>20</v>
@@ -7135,19 +7136,19 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B32" t="s">
+        <v>301</v>
+      </c>
+      <c r="D32" t="s">
         <v>302</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>303</v>
       </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>304</v>
-      </c>
-      <c r="E32" t="s">
-        <v>305</v>
-      </c>
-      <c r="F32" t="s">
-        <v>306</v>
       </c>
       <c r="G32">
         <v>0.5</v>
@@ -7165,13 +7166,13 @@
         <v>30</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>177</v>
@@ -7180,10 +7181,10 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B33" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -7198,35 +7199,35 @@
         <v>84</v>
       </c>
       <c r="N33" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B34" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" t="s">
+        <v>313</v>
+      </c>
+      <c r="D34" t="s">
         <v>314</v>
       </c>
-      <c r="B34" t="s">
-        <v>248</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>315</v>
       </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>316</v>
-      </c>
-      <c r="E34" t="s">
-        <v>317</v>
-      </c>
-      <c r="F34" t="s">
-        <v>318</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -7238,7 +7239,7 @@
         <v>54</v>
       </c>
       <c r="J34" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K34" t="s">
         <v>66</v>
@@ -7256,33 +7257,33 @@
         <v>2</v>
       </c>
       <c r="P34" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="R34" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="Q34" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="R34" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B35" t="s">
+        <v>322</v>
+      </c>
+      <c r="C35" t="s">
         <v>323</v>
       </c>
-      <c r="B35" t="s">
+      <c r="D35" t="s">
         <v>324</v>
       </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>325</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>326</v>
-      </c>
-      <c r="E35" t="s">
-        <v>327</v>
-      </c>
-      <c r="F35" t="s">
-        <v>328</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -7294,7 +7295,7 @@
         <v>54</v>
       </c>
       <c r="J35" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K35" t="s">
         <v>66</v>
@@ -7312,31 +7313,31 @@
         <v>89</v>
       </c>
       <c r="P35" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="B36" t="s">
+        <v>330</v>
+      </c>
+      <c r="C36" t="s">
         <v>331</v>
       </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>332</v>
       </c>
-      <c r="C36" t="s">
+      <c r="E36" t="s">
         <v>333</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>334</v>
-      </c>
-      <c r="E36" t="s">
-        <v>335</v>
-      </c>
-      <c r="F36" t="s">
-        <v>336</v>
       </c>
       <c r="G36">
         <v>1.5</v>
@@ -7348,7 +7349,7 @@
         <v>64</v>
       </c>
       <c r="J36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K36" t="s">
         <v>66</v>
@@ -7360,39 +7361,39 @@
         <v>15</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>338</v>
+        <v>1460</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>31</v>
       </c>
       <c r="P36" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>119</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="B37" t="s">
+        <v>339</v>
+      </c>
+      <c r="C37" t="s">
+        <v>340</v>
+      </c>
+      <c r="D37" t="s">
         <v>341</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>342</v>
       </c>
-      <c r="C37" t="s">
+      <c r="F37" t="s">
         <v>343</v>
-      </c>
-      <c r="D37" t="s">
-        <v>344</v>
-      </c>
-      <c r="E37" t="s">
-        <v>345</v>
-      </c>
-      <c r="F37" t="s">
-        <v>346</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -7404,7 +7405,7 @@
         <v>64</v>
       </c>
       <c r="J37" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K37" t="s">
         <v>66</v>
@@ -7427,22 +7428,22 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="B38" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" t="s">
         <v>348</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
         <v>349</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
         <v>350</v>
-      </c>
-      <c r="D38" t="s">
-        <v>351</v>
-      </c>
-      <c r="E38" t="s">
-        <v>352</v>
-      </c>
-      <c r="F38" t="s">
-        <v>353</v>
       </c>
       <c r="G38">
         <v>0.5</v>
@@ -7454,7 +7455,7 @@
         <v>64</v>
       </c>
       <c r="J38" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K38" t="s">
         <v>66</v>
@@ -7479,25 +7480,25 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="B39" t="s">
+        <v>353</v>
+      </c>
+      <c r="C39" t="s">
+        <v>354</v>
+      </c>
+      <c r="D39" t="s">
         <v>355</v>
-      </c>
-      <c r="B39" t="s">
-        <v>356</v>
-      </c>
-      <c r="C39" t="s">
-        <v>357</v>
-      </c>
-      <c r="D39" t="s">
-        <v>358</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="J39" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K39" t="s">
         <v>66</v>
@@ -7518,30 +7519,30 @@
         <v>23</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" t="s">
+        <v>362</v>
+      </c>
+      <c r="D40" t="s">
         <v>363</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E40" t="s">
         <v>364</v>
       </c>
-      <c r="C40" t="s">
+      <c r="F40" t="s">
         <v>365</v>
-      </c>
-      <c r="D40" t="s">
-        <v>366</v>
-      </c>
-      <c r="E40" t="s">
-        <v>367</v>
-      </c>
-      <c r="F40" t="s">
-        <v>368</v>
       </c>
       <c r="G40">
         <v>1.5</v>
@@ -7553,7 +7554,7 @@
         <v>64</v>
       </c>
       <c r="J40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="K40" t="s">
         <v>66</v>
@@ -7571,26 +7572,26 @@
         <v>31</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="B41" t="s">
+        <v>369</v>
+      </c>
+      <c r="D41" t="s">
+        <v>370</v>
+      </c>
+      <c r="E41" t="s">
         <v>371</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
         <v>372</v>
-      </c>
-      <c r="D41" t="s">
-        <v>373</v>
-      </c>
-      <c r="E41" t="s">
-        <v>374</v>
-      </c>
-      <c r="F41" t="s">
-        <v>375</v>
       </c>
       <c r="G41">
         <v>1.5</v>
@@ -7602,7 +7603,7 @@
         <v>64</v>
       </c>
       <c r="J41" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K41" t="s">
         <v>66</v>
@@ -7620,7 +7621,7 @@
         <v>25</v>
       </c>
       <c r="P41" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="Q41" s="6" t="s">
         <v>119</v>
@@ -7629,13 +7630,13 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="19" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D42" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G42">
         <v>1.5</v>
@@ -7647,7 +7648,7 @@
         <v>54</v>
       </c>
       <c r="J42" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s">
         <v>66</v>
@@ -7659,38 +7660,38 @@
         <v>13</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B43" t="s">
+        <v>381</v>
+      </c>
+      <c r="D43" t="s">
+        <v>382</v>
+      </c>
+      <c r="E43" t="s">
         <v>383</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" t="s">
         <v>384</v>
-      </c>
-      <c r="D43" t="s">
-        <v>385</v>
-      </c>
-      <c r="E43" t="s">
-        <v>386</v>
-      </c>
-      <c r="F43" t="s">
-        <v>387</v>
       </c>
       <c r="G43">
         <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I43" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J43" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K43" t="s">
         <v>66</v>
@@ -7708,23 +7709,23 @@
         <v>13</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="B44" t="s">
+        <v>390</v>
+      </c>
+      <c r="C44" t="s">
+        <v>391</v>
+      </c>
+      <c r="D44" t="s">
         <v>392</v>
-      </c>
-      <c r="B44" t="s">
-        <v>393</v>
-      </c>
-      <c r="C44" t="s">
-        <v>394</v>
-      </c>
-      <c r="D44" t="s">
-        <v>395</v>
       </c>
       <c r="G44">
         <v>0.5</v>
@@ -7748,28 +7749,28 @@
         <v>16</v>
       </c>
       <c r="P44" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R44" s="6"/>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="19" t="s">
+        <v>395</v>
+      </c>
+      <c r="B45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" t="s">
+        <v>396</v>
+      </c>
+      <c r="E45" t="s">
+        <v>397</v>
+      </c>
+      <c r="F45" t="s">
         <v>398</v>
-      </c>
-      <c r="B45" t="s">
-        <v>200</v>
-      </c>
-      <c r="D45" t="s">
-        <v>399</v>
-      </c>
-      <c r="E45" t="s">
-        <v>400</v>
-      </c>
-      <c r="F45" t="s">
-        <v>401</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -7781,7 +7782,7 @@
         <v>54</v>
       </c>
       <c r="J45" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="K45" t="s">
         <v>66</v>
@@ -7806,19 +7807,19 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="B46" t="s">
+        <v>401</v>
+      </c>
+      <c r="D46" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" t="s">
         <v>403</v>
       </c>
-      <c r="B46" t="s">
-        <v>404</v>
-      </c>
-      <c r="D46" t="s">
-        <v>405</v>
-      </c>
-      <c r="E46" t="s">
-        <v>406</v>
-      </c>
       <c r="F46" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G46">
         <v>1.5</v>
@@ -7830,7 +7831,7 @@
         <v>54</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K46" t="s">
         <v>66</v>
@@ -7853,22 +7854,22 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="B47" t="s">
+        <v>369</v>
+      </c>
+      <c r="C47" t="s">
+        <v>406</v>
+      </c>
+      <c r="D47" t="s">
+        <v>407</v>
+      </c>
+      <c r="E47" t="s">
         <v>408</v>
       </c>
-      <c r="B47" t="s">
-        <v>372</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="F47" t="s">
         <v>409</v>
-      </c>
-      <c r="D47" t="s">
-        <v>410</v>
-      </c>
-      <c r="E47" t="s">
-        <v>411</v>
-      </c>
-      <c r="F47" t="s">
-        <v>412</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -7880,10 +7881,10 @@
         <v>64</v>
       </c>
       <c r="J47" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="K47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L47">
         <v>6</v>
@@ -7898,17 +7899,17 @@
         <v>19</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="19" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G48">
         <v>2</v>
@@ -7920,7 +7921,7 @@
         <v>54</v>
       </c>
       <c r="K48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N48" s="5" t="s">
         <v>1</v>
@@ -7929,26 +7930,26 @@
         <v>2</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="B49" t="s">
+        <v>416</v>
+      </c>
+      <c r="D49" t="s">
+        <v>417</v>
+      </c>
+      <c r="E49" t="s">
         <v>418</v>
       </c>
-      <c r="B49" t="s">
+      <c r="F49" t="s">
         <v>419</v>
-      </c>
-      <c r="D49" t="s">
-        <v>420</v>
-      </c>
-      <c r="E49" t="s">
-        <v>421</v>
-      </c>
-      <c r="F49" t="s">
-        <v>422</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -7960,7 +7961,7 @@
         <v>64</v>
       </c>
       <c r="J49" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K49" t="s">
         <v>66</v>
@@ -7975,32 +7976,32 @@
         <v>23</v>
       </c>
       <c r="O49" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="19" t="s">
+        <v>423</v>
+      </c>
+      <c r="B50" t="s">
+        <v>424</v>
+      </c>
+      <c r="C50" t="s">
+        <v>425</v>
+      </c>
+      <c r="D50" t="s">
         <v>426</v>
       </c>
-      <c r="B50" t="s">
+      <c r="E50" t="s">
         <v>427</v>
       </c>
-      <c r="C50" t="s">
+      <c r="F50" t="s">
         <v>428</v>
-      </c>
-      <c r="D50" t="s">
-        <v>429</v>
-      </c>
-      <c r="E50" t="s">
-        <v>430</v>
-      </c>
-      <c r="F50" t="s">
-        <v>431</v>
       </c>
       <c r="G50">
         <v>1.5</v>
@@ -8012,7 +8013,7 @@
         <v>64</v>
       </c>
       <c r="J50" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K50" t="s">
         <v>66</v>
@@ -8027,31 +8028,31 @@
         <v>23</v>
       </c>
       <c r="O50" s="6" t="s">
-        <v>433</v>
+        <v>1461</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="R50" s="6"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="19" t="s">
+        <v>431</v>
+      </c>
+      <c r="B51" t="s">
+        <v>432</v>
+      </c>
+      <c r="D51" t="s">
+        <v>433</v>
+      </c>
+      <c r="E51" t="s">
+        <v>434</v>
+      </c>
+      <c r="F51" t="s">
         <v>435</v>
-      </c>
-      <c r="B51" t="s">
-        <v>436</v>
-      </c>
-      <c r="D51" t="s">
-        <v>437</v>
-      </c>
-      <c r="E51" t="s">
-        <v>438</v>
-      </c>
-      <c r="F51" t="s">
-        <v>439</v>
       </c>
       <c r="G51">
         <v>1.5</v>
@@ -8063,7 +8064,7 @@
         <v>64</v>
       </c>
       <c r="J51" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="K51" t="s">
         <v>66</v>
@@ -8087,27 +8088,27 @@
         <v>17</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B52" t="s">
+        <v>439</v>
+      </c>
+      <c r="C52" t="s">
+        <v>440</v>
+      </c>
+      <c r="D52" t="s">
+        <v>441</v>
+      </c>
+      <c r="E52" t="s">
         <v>442</v>
       </c>
-      <c r="B52" t="s">
+      <c r="F52" t="s">
         <v>443</v>
-      </c>
-      <c r="C52" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" t="s">
-        <v>445</v>
-      </c>
-      <c r="E52" t="s">
-        <v>446</v>
-      </c>
-      <c r="F52" t="s">
-        <v>447</v>
       </c>
       <c r="G52">
         <v>1.5</v>
@@ -8116,7 +8117,7 @@
         <v>64</v>
       </c>
       <c r="J52" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K52" t="s">
         <v>66</v>
@@ -8131,41 +8132,41 @@
         <v>23</v>
       </c>
       <c r="O52" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="B53" t="s">
+        <v>446</v>
+      </c>
+      <c r="D53" t="s">
+        <v>447</v>
+      </c>
+      <c r="E53" t="s">
+        <v>448</v>
+      </c>
+      <c r="F53" t="s">
         <v>449</v>
-      </c>
-      <c r="B53" t="s">
-        <v>450</v>
-      </c>
-      <c r="D53" t="s">
-        <v>451</v>
-      </c>
-      <c r="E53" t="s">
-        <v>452</v>
-      </c>
-      <c r="F53" t="s">
-        <v>453</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I53" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J53" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K53" t="s">
         <v>84</v>
@@ -8180,25 +8181,25 @@
         <v>2</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="R53" s="6"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="19" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B54" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D54" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="E54" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F54" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G54">
         <v>1.5</v>
@@ -8210,7 +8211,7 @@
         <v>64</v>
       </c>
       <c r="J54" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K54" t="s">
         <v>66</v>
@@ -8225,49 +8226,49 @@
         <v>23</v>
       </c>
       <c r="O54" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="R54" s="6"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="B55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C55" t="s">
+        <v>461</v>
+      </c>
+      <c r="D55" t="s">
+        <v>462</v>
+      </c>
+      <c r="E55" t="s">
+        <v>463</v>
+      </c>
+      <c r="F55" t="s">
         <v>464</v>
-      </c>
-      <c r="B55" t="s">
-        <v>214</v>
-      </c>
-      <c r="C55" t="s">
-        <v>465</v>
-      </c>
-      <c r="D55" t="s">
-        <v>466</v>
-      </c>
-      <c r="E55" t="s">
-        <v>467</v>
-      </c>
-      <c r="F55" t="s">
-        <v>468</v>
       </c>
       <c r="G55">
         <v>2</v>
       </c>
       <c r="H55" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I55" t="s">
         <v>64</v>
       </c>
       <c r="J55" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="K55" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L55">
         <v>5</v>
@@ -8285,40 +8286,40 @@
         <v>25</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="R55" s="6"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
+        <v>467</v>
+      </c>
+      <c r="B56" t="s">
+        <v>468</v>
+      </c>
+      <c r="C56" t="s">
+        <v>469</v>
+      </c>
+      <c r="D56" t="s">
+        <v>470</v>
+      </c>
+      <c r="E56" t="s">
         <v>471</v>
       </c>
-      <c r="B56" t="s">
+      <c r="F56" t="s">
         <v>472</v>
-      </c>
-      <c r="C56" t="s">
-        <v>473</v>
-      </c>
-      <c r="D56" t="s">
-        <v>474</v>
-      </c>
-      <c r="E56" t="s">
-        <v>475</v>
-      </c>
-      <c r="F56" t="s">
-        <v>476</v>
       </c>
       <c r="G56">
         <v>2</v>
       </c>
       <c r="H56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I56" t="s">
         <v>54</v>
       </c>
       <c r="J56" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="K56" t="s">
         <v>66</v>
@@ -8343,34 +8344,34 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="B57" t="s">
+        <v>475</v>
+      </c>
+      <c r="C57" t="s">
+        <v>476</v>
+      </c>
+      <c r="D57" t="s">
+        <v>477</v>
+      </c>
+      <c r="E57" t="s">
         <v>478</v>
       </c>
-      <c r="B57" t="s">
+      <c r="F57" t="s">
         <v>479</v>
-      </c>
-      <c r="C57" t="s">
-        <v>480</v>
-      </c>
-      <c r="D57" t="s">
-        <v>481</v>
-      </c>
-      <c r="E57" t="s">
-        <v>482</v>
-      </c>
-      <c r="F57" t="s">
-        <v>483</v>
       </c>
       <c r="G57">
         <v>2</v>
       </c>
       <c r="H57" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I57" t="s">
         <v>54</v>
       </c>
       <c r="J57" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="K57" t="s">
         <v>66</v>
@@ -8397,31 +8398,31 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="B58" t="s">
+        <v>482</v>
+      </c>
+      <c r="D58" t="s">
+        <v>483</v>
+      </c>
+      <c r="E58" t="s">
+        <v>484</v>
+      </c>
+      <c r="F58" t="s">
         <v>485</v>
-      </c>
-      <c r="B58" t="s">
-        <v>486</v>
-      </c>
-      <c r="D58" t="s">
-        <v>487</v>
-      </c>
-      <c r="E58" t="s">
-        <v>488</v>
-      </c>
-      <c r="F58" t="s">
-        <v>489</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I58" t="s">
         <v>54</v>
       </c>
       <c r="J58" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K58" t="s">
         <v>66</v>
@@ -8442,16 +8443,16 @@
         <v>16</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="R58" s="6"/>
     </row>
     <row r="59" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G59" s="7">
         <v>2</v>
@@ -8463,10 +8464,10 @@
         <v>54</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N59" s="8" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="O59" s="9"/>
       <c r="P59" s="9"/>
@@ -8475,22 +8476,22 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B60" t="s">
+        <v>491</v>
+      </c>
+      <c r="C60" t="s">
+        <v>492</v>
+      </c>
+      <c r="D60" t="s">
+        <v>493</v>
+      </c>
+      <c r="E60" t="s">
+        <v>494</v>
+      </c>
+      <c r="F60" t="s">
         <v>495</v>
-      </c>
-      <c r="C60" t="s">
-        <v>496</v>
-      </c>
-      <c r="D60" t="s">
-        <v>497</v>
-      </c>
-      <c r="E60" t="s">
-        <v>498</v>
-      </c>
-      <c r="F60" t="s">
-        <v>499</v>
       </c>
       <c r="G60">
         <v>1.5</v>
@@ -8502,10 +8503,10 @@
         <v>54</v>
       </c>
       <c r="J60" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="K60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -8523,16 +8524,16 @@
         <v>14</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="R60" s="6"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="19" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B61" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -8544,7 +8545,7 @@
         <v>54</v>
       </c>
       <c r="K61" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N61" s="5" t="s">
         <v>2</v>
@@ -8558,19 +8559,19 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="19" t="s">
+        <v>499</v>
+      </c>
+      <c r="B62" t="s">
+        <v>500</v>
+      </c>
+      <c r="D62" t="s">
+        <v>501</v>
+      </c>
+      <c r="E62" t="s">
+        <v>502</v>
+      </c>
+      <c r="F62" t="s">
         <v>503</v>
-      </c>
-      <c r="B62" t="s">
-        <v>504</v>
-      </c>
-      <c r="D62" t="s">
-        <v>505</v>
-      </c>
-      <c r="E62" t="s">
-        <v>506</v>
-      </c>
-      <c r="F62" t="s">
-        <v>507</v>
       </c>
       <c r="G62">
         <v>2</v>
@@ -8582,7 +8583,7 @@
         <v>54</v>
       </c>
       <c r="J62" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K62" t="s">
         <v>66</v>
@@ -8603,22 +8604,22 @@
         <v>106</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="R62" s="6"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="19" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B63" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C63" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D63" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -8627,10 +8628,10 @@
         <v>53</v>
       </c>
       <c r="I63" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J63" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="K63" t="s">
         <v>66</v>
@@ -8645,20 +8646,20 @@
         <v>18</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="Q63" s="6"/>
       <c r="R63" s="6"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="19" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G64">
         <v>0.5</v>
@@ -8682,23 +8683,23 @@
         <v>2</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="Q64" s="6"/>
       <c r="R64" s="6"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B65" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C65" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D65" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -8733,28 +8734,28 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C66" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D66" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G66">
         <v>2</v>
       </c>
       <c r="H66" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I66" t="s">
         <v>54</v>
       </c>
       <c r="J66" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="K66" t="s">
         <v>66</v>
@@ -8779,34 +8780,34 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
+        <v>523</v>
+      </c>
+      <c r="B67" t="s">
+        <v>524</v>
+      </c>
+      <c r="C67" t="s">
+        <v>525</v>
+      </c>
+      <c r="D67" t="s">
+        <v>526</v>
+      </c>
+      <c r="E67" t="s">
         <v>527</v>
       </c>
-      <c r="B67" t="s">
+      <c r="F67" t="s">
         <v>528</v>
-      </c>
-      <c r="C67" t="s">
-        <v>529</v>
-      </c>
-      <c r="D67" t="s">
-        <v>530</v>
-      </c>
-      <c r="E67" t="s">
-        <v>531</v>
-      </c>
-      <c r="F67" t="s">
-        <v>532</v>
       </c>
       <c r="G67">
         <v>1.5</v>
       </c>
       <c r="H67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I67" t="s">
         <v>54</v>
       </c>
       <c r="J67" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K67" t="s">
         <v>66</v>
@@ -8824,35 +8825,35 @@
         <v>28</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="Q67" s="6"/>
       <c r="R67" s="6"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="B68" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C68" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D68" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G68">
         <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I68" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J68" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="K68" t="s">
         <v>84</v>
@@ -8879,22 +8880,22 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
+        <v>537</v>
+      </c>
+      <c r="B69" t="s">
+        <v>538</v>
+      </c>
+      <c r="C69" t="s">
+        <v>539</v>
+      </c>
+      <c r="D69" t="s">
+        <v>540</v>
+      </c>
+      <c r="E69" t="s">
         <v>541</v>
       </c>
-      <c r="B69" t="s">
+      <c r="F69" t="s">
         <v>542</v>
-      </c>
-      <c r="C69" t="s">
-        <v>543</v>
-      </c>
-      <c r="D69" t="s">
-        <v>544</v>
-      </c>
-      <c r="E69" t="s">
-        <v>545</v>
-      </c>
-      <c r="F69" t="s">
-        <v>546</v>
       </c>
       <c r="G69">
         <v>1.5</v>
@@ -8906,7 +8907,7 @@
         <v>64</v>
       </c>
       <c r="J69" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K69" t="s">
         <v>66</v>
@@ -8924,26 +8925,26 @@
         <v>22</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="6"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B70" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C70" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D70" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="F70" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="G70">
         <v>1.5</v>
@@ -8955,7 +8956,7 @@
         <v>64</v>
       </c>
       <c r="J70" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="K70" t="s">
         <v>66</v>
@@ -8976,13 +8977,13 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="B71" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D71" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -8994,7 +8995,7 @@
         <v>186</v>
       </c>
       <c r="J71" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="K71" t="s">
         <v>66</v>
@@ -9011,25 +9012,25 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B72" t="s">
+        <v>550</v>
+      </c>
+      <c r="D72" t="s">
         <v>554</v>
-      </c>
-      <c r="D72" t="s">
-        <v>558</v>
       </c>
       <c r="G72">
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I72" t="s">
         <v>54</v>
       </c>
       <c r="J72" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K72" t="s">
         <v>66</v>
@@ -9052,19 +9053,19 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
+        <v>557</v>
+      </c>
+      <c r="B73" t="s">
+        <v>558</v>
+      </c>
+      <c r="D73" t="s">
+        <v>559</v>
+      </c>
+      <c r="E73" t="s">
+        <v>560</v>
+      </c>
+      <c r="F73" t="s">
         <v>561</v>
-      </c>
-      <c r="B73" t="s">
-        <v>562</v>
-      </c>
-      <c r="D73" t="s">
-        <v>563</v>
-      </c>
-      <c r="E73" t="s">
-        <v>564</v>
-      </c>
-      <c r="F73" t="s">
-        <v>565</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -9094,22 +9095,22 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="B74" t="s">
+        <v>563</v>
+      </c>
+      <c r="C74" t="s">
+        <v>564</v>
+      </c>
+      <c r="D74" t="s">
+        <v>565</v>
+      </c>
+      <c r="E74" t="s">
         <v>566</v>
       </c>
-      <c r="B74" t="s">
+      <c r="F74" t="s">
         <v>567</v>
-      </c>
-      <c r="C74" t="s">
-        <v>568</v>
-      </c>
-      <c r="D74" t="s">
-        <v>569</v>
-      </c>
-      <c r="E74" t="s">
-        <v>570</v>
-      </c>
-      <c r="F74" t="s">
-        <v>571</v>
       </c>
       <c r="G74">
         <v>1.5</v>
@@ -9121,10 +9122,10 @@
         <v>64</v>
       </c>
       <c r="J74" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="K74" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L74">
         <v>5</v>
@@ -9136,34 +9137,34 @@
         <v>31</v>
       </c>
       <c r="O74" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="Q74" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="R74" s="3"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
+        <v>570</v>
+      </c>
+      <c r="B75" t="s">
+        <v>571</v>
+      </c>
+      <c r="C75" t="s">
+        <v>572</v>
+      </c>
+      <c r="D75" t="s">
+        <v>573</v>
+      </c>
+      <c r="E75" t="s">
         <v>574</v>
       </c>
-      <c r="B75" t="s">
+      <c r="F75" t="s">
         <v>575</v>
-      </c>
-      <c r="C75" t="s">
-        <v>576</v>
-      </c>
-      <c r="D75" t="s">
-        <v>577</v>
-      </c>
-      <c r="E75" t="s">
-        <v>578</v>
-      </c>
-      <c r="F75" t="s">
-        <v>579</v>
       </c>
       <c r="G75">
         <v>1.5</v>
@@ -9175,7 +9176,7 @@
         <v>64</v>
       </c>
       <c r="J75" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K75" t="s">
         <v>66</v>
@@ -9187,47 +9188,47 @@
         <v>20</v>
       </c>
       <c r="N75" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="O75" s="5" t="s">
         <v>1</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="Q75" s="3"/>
       <c r="R75" s="3"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
+        <v>578</v>
+      </c>
+      <c r="B76" t="s">
+        <v>579</v>
+      </c>
+      <c r="C76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D76" t="s">
+        <v>581</v>
+      </c>
+      <c r="E76" t="s">
         <v>582</v>
       </c>
-      <c r="B76" t="s">
+      <c r="F76" t="s">
         <v>583</v>
-      </c>
-      <c r="C76" t="s">
-        <v>584</v>
-      </c>
-      <c r="D76" t="s">
-        <v>585</v>
-      </c>
-      <c r="E76" t="s">
-        <v>586</v>
-      </c>
-      <c r="F76" t="s">
-        <v>587</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I76" t="s">
         <v>54</v>
       </c>
       <c r="J76" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K76" t="s">
         <v>66</v>
@@ -9245,7 +9246,7 @@
         <v>25</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="Q76" s="3" t="s">
         <v>107</v>
@@ -9254,13 +9255,13 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B77" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D77" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="G77">
         <v>2</v>
@@ -9272,7 +9273,7 @@
         <v>54</v>
       </c>
       <c r="J77" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="K77" t="s">
         <v>84</v>
@@ -9284,31 +9285,31 @@
         <v>25</v>
       </c>
       <c r="N77" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="O77" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="Q77" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="R77" s="3"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="B78" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D78" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="E78" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -9320,7 +9321,7 @@
         <v>64</v>
       </c>
       <c r="J78" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K78" t="s">
         <v>66</v>
@@ -9332,25 +9333,25 @@
         <v>23</v>
       </c>
       <c r="O78" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="Q78" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="R78" s="3"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="B79" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="G79">
         <v>0.5</v>
@@ -9365,41 +9366,41 @@
         <v>20</v>
       </c>
       <c r="N79" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="P79" s="3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="Q79" s="3"/>
       <c r="R79" s="3"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B80" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C80" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D80" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I80" t="s">
         <v>64</v>
       </c>
       <c r="J80" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="K80" t="s">
         <v>66</v>
@@ -9411,35 +9412,35 @@
         <v>20</v>
       </c>
       <c r="N80" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="O80" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P80" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="Q80" s="3"/>
       <c r="R80" s="3"/>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="19" t="s">
+        <v>610</v>
+      </c>
+      <c r="B81" t="s">
+        <v>611</v>
+      </c>
+      <c r="C81" t="s">
+        <v>612</v>
+      </c>
+      <c r="D81" t="s">
+        <v>613</v>
+      </c>
+      <c r="E81" t="s">
         <v>614</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>615</v>
-      </c>
-      <c r="C81" t="s">
-        <v>616</v>
-      </c>
-      <c r="D81" t="s">
-        <v>617</v>
-      </c>
-      <c r="E81" t="s">
-        <v>618</v>
-      </c>
-      <c r="F81" t="s">
-        <v>619</v>
       </c>
       <c r="G81">
         <v>1.5</v>
@@ -9451,7 +9452,7 @@
         <v>64</v>
       </c>
       <c r="J81" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K81" t="s">
         <v>66</v>
@@ -9463,46 +9464,46 @@
         <v>14</v>
       </c>
       <c r="N81" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="O81" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="P81" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="Q81" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="R81" s="3"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="19" t="s">
+        <v>618</v>
+      </c>
+      <c r="B82" t="s">
+        <v>619</v>
+      </c>
+      <c r="C82" t="s">
+        <v>620</v>
+      </c>
+      <c r="D82" t="s">
+        <v>621</v>
+      </c>
+      <c r="E82" t="s">
         <v>622</v>
-      </c>
-      <c r="B82" t="s">
-        <v>623</v>
-      </c>
-      <c r="C82" t="s">
-        <v>624</v>
-      </c>
-      <c r="D82" t="s">
-        <v>625</v>
-      </c>
-      <c r="E82" t="s">
-        <v>626</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I82" t="s">
         <v>64</v>
       </c>
       <c r="J82" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="K82" t="s">
         <v>66</v>
@@ -9514,34 +9515,34 @@
         <v>30</v>
       </c>
       <c r="N82" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="O82" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="Q82" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="R82" s="3"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="B83" t="s">
+        <v>629</v>
+      </c>
+      <c r="C83" t="s">
+        <v>630</v>
+      </c>
+      <c r="D83" t="s">
+        <v>631</v>
+      </c>
+      <c r="E83" t="s">
         <v>632</v>
-      </c>
-      <c r="B83" t="s">
-        <v>633</v>
-      </c>
-      <c r="C83" t="s">
-        <v>634</v>
-      </c>
-      <c r="D83" t="s">
-        <v>635</v>
-      </c>
-      <c r="E83" t="s">
-        <v>636</v>
       </c>
       <c r="G83">
         <v>1.5</v>
@@ -9568,10 +9569,10 @@
         <v>2</v>
       </c>
       <c r="O83" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="P83" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>68</v>
@@ -9580,19 +9581,19 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B84" t="s">
         <v>171</v>
       </c>
       <c r="D84" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E84" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="F84" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -9616,10 +9617,10 @@
         <v>25</v>
       </c>
       <c r="N84" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="O84" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="P84" s="3" t="s">
         <v>7</v>
@@ -9631,31 +9632,31 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B85" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="C85" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D85" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="G85">
         <v>2</v>
       </c>
       <c r="H85" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I85" t="s">
         <v>54</v>
       </c>
       <c r="J85" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="K85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L85">
         <v>5</v>
@@ -9664,32 +9665,32 @@
         <v>12</v>
       </c>
       <c r="N85" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="O85" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="P85" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="B86" t="s">
+        <v>650</v>
+      </c>
+      <c r="D86" t="s">
+        <v>651</v>
+      </c>
+      <c r="E86" t="s">
+        <v>652</v>
+      </c>
+      <c r="F86" t="s">
         <v>653</v>
-      </c>
-      <c r="B86" t="s">
-        <v>654</v>
-      </c>
-      <c r="D86" t="s">
-        <v>655</v>
-      </c>
-      <c r="E86" t="s">
-        <v>656</v>
-      </c>
-      <c r="F86" t="s">
-        <v>657</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -9713,13 +9714,13 @@
         <v>16</v>
       </c>
       <c r="N86" s="5" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="O86" s="5" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="P86" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="Q86" s="3" t="s">
         <v>23</v>
@@ -9728,40 +9729,40 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="19" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D87" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G87">
         <v>2</v>
       </c>
       <c r="H87" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I87" t="s">
         <v>54</v>
       </c>
       <c r="J87" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K87" t="s">
         <v>66</v>
       </c>
       <c r="N87" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="O87" s="5" t="s">
         <v>11</v>
       </c>
       <c r="P87" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="Q87" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="R87" s="3" t="s">
         <v>13</v>
@@ -9769,31 +9770,31 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="19" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B88" t="s">
         <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="E88" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F88" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G88">
         <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I88" t="s">
         <v>54</v>
       </c>
       <c r="J88" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="K88" t="s">
         <v>66</v>
@@ -9805,13 +9806,13 @@
         <v>30</v>
       </c>
       <c r="N88" s="5" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="O88" s="5" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="P88" s="3" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>13</v>
@@ -9820,22 +9821,22 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="B89" t="s">
+        <v>671</v>
+      </c>
+      <c r="C89" t="s">
+        <v>672</v>
+      </c>
+      <c r="D89" t="s">
+        <v>673</v>
+      </c>
+      <c r="E89" t="s">
         <v>674</v>
       </c>
-      <c r="B89" t="s">
+      <c r="F89" t="s">
         <v>675</v>
-      </c>
-      <c r="C89" t="s">
-        <v>676</v>
-      </c>
-      <c r="D89" t="s">
-        <v>677</v>
-      </c>
-      <c r="E89" t="s">
-        <v>678</v>
-      </c>
-      <c r="F89" t="s">
-        <v>679</v>
       </c>
       <c r="G89">
         <v>1.5</v>
@@ -9847,7 +9848,7 @@
         <v>64</v>
       </c>
       <c r="J89" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K89" t="s">
         <v>66</v>
@@ -9859,32 +9860,32 @@
         <v>12</v>
       </c>
       <c r="N89" s="5" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="O89" s="5" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="P89" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="Q89" s="3"/>
       <c r="R89" s="3"/>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="B90" t="s">
+        <v>680</v>
+      </c>
+      <c r="D90" t="s">
+        <v>681</v>
+      </c>
+      <c r="E90" t="s">
+        <v>682</v>
+      </c>
+      <c r="F90" t="s">
         <v>683</v>
-      </c>
-      <c r="B90" t="s">
-        <v>684</v>
-      </c>
-      <c r="D90" t="s">
-        <v>685</v>
-      </c>
-      <c r="E90" t="s">
-        <v>686</v>
-      </c>
-      <c r="F90" t="s">
-        <v>687</v>
       </c>
       <c r="G90">
         <v>1.5</v>
@@ -9896,7 +9897,7 @@
         <v>64</v>
       </c>
       <c r="J90" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="K90" t="s">
         <v>66</v>
@@ -9908,23 +9909,23 @@
         <v>12</v>
       </c>
       <c r="N90" s="13" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="P90" s="3" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="19" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B91" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -9936,13 +9937,13 @@
         <v>54</v>
       </c>
       <c r="K91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N91" s="5" t="s">
         <v>190</v>
       </c>
       <c r="O91" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P91" s="3"/>
       <c r="Q91" s="3"/>
@@ -9950,19 +9951,19 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="B92" t="s">
+        <v>688</v>
+      </c>
+      <c r="D92" t="s">
+        <v>689</v>
+      </c>
+      <c r="E92" t="s">
+        <v>690</v>
+      </c>
+      <c r="F92" t="s">
         <v>691</v>
-      </c>
-      <c r="B92" t="s">
-        <v>692</v>
-      </c>
-      <c r="D92" t="s">
-        <v>693</v>
-      </c>
-      <c r="E92" t="s">
-        <v>694</v>
-      </c>
-      <c r="F92" t="s">
-        <v>695</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -9974,10 +9975,10 @@
         <v>64</v>
       </c>
       <c r="J92" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="K92" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L92">
         <v>4</v>
@@ -9986,10 +9987,10 @@
         <v>20</v>
       </c>
       <c r="N92" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O92" s="5" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="P92" s="3" t="s">
         <v>18</v>
@@ -9999,28 +10000,28 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="19" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B93" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C93" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D93" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G93">
         <v>2</v>
       </c>
       <c r="H93" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I93" t="s">
         <v>54</v>
       </c>
       <c r="J93" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K93" t="s">
         <v>66</v>
@@ -10032,10 +10033,10 @@
         <v>30</v>
       </c>
       <c r="N93" s="5" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="O93" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P93" s="3" t="s">
         <v>1</v>
@@ -10047,22 +10048,22 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="B94" t="s">
+        <v>699</v>
+      </c>
+      <c r="C94" t="s">
+        <v>700</v>
+      </c>
+      <c r="D94" t="s">
+        <v>701</v>
+      </c>
+      <c r="E94" t="s">
         <v>702</v>
       </c>
-      <c r="B94" t="s">
+      <c r="F94" t="s">
         <v>703</v>
-      </c>
-      <c r="C94" t="s">
-        <v>704</v>
-      </c>
-      <c r="D94" t="s">
-        <v>705</v>
-      </c>
-      <c r="E94" t="s">
-        <v>706</v>
-      </c>
-      <c r="F94" t="s">
-        <v>707</v>
       </c>
       <c r="G94">
         <v>1.5</v>
@@ -10074,7 +10075,7 @@
         <v>64</v>
       </c>
       <c r="J94" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="K94" t="s">
         <v>84</v>
@@ -10086,49 +10087,49 @@
         <v>19</v>
       </c>
       <c r="N94" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="O94" s="5" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="P94" s="3" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="R94" s="3"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="B95" t="s">
+        <v>710</v>
+      </c>
+      <c r="C95" t="s">
+        <v>711</v>
+      </c>
+      <c r="D95" t="s">
+        <v>712</v>
+      </c>
+      <c r="E95" t="s">
         <v>713</v>
       </c>
-      <c r="B95" t="s">
+      <c r="F95" t="s">
         <v>714</v>
-      </c>
-      <c r="C95" t="s">
-        <v>715</v>
-      </c>
-      <c r="D95" t="s">
-        <v>716</v>
-      </c>
-      <c r="E95" t="s">
-        <v>717</v>
-      </c>
-      <c r="F95" t="s">
-        <v>718</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I95" t="s">
         <v>64</v>
       </c>
       <c r="J95" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="K95" t="s">
         <v>66</v>
@@ -10140,49 +10141,49 @@
         <v>18</v>
       </c>
       <c r="N95" s="5" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="O95" s="5" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="Q95" s="3" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="R95" s="3"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="B96" t="s">
+        <v>720</v>
+      </c>
+      <c r="D96" t="s">
+        <v>721</v>
+      </c>
+      <c r="E96" t="s">
+        <v>722</v>
+      </c>
+      <c r="F96" t="s">
         <v>723</v>
-      </c>
-      <c r="B96" t="s">
-        <v>724</v>
-      </c>
-      <c r="D96" t="s">
-        <v>725</v>
-      </c>
-      <c r="E96" t="s">
-        <v>726</v>
-      </c>
-      <c r="F96" t="s">
-        <v>727</v>
       </c>
       <c r="G96">
         <v>3</v>
       </c>
       <c r="H96" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I96" t="s">
         <v>186</v>
       </c>
       <c r="J96" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="K96" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L96">
         <v>5</v>
@@ -10204,19 +10205,19 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="19" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="B97" t="s">
         <v>163</v>
       </c>
       <c r="D97" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E97" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F97" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G97">
         <v>2</v>
@@ -10228,7 +10229,7 @@
         <v>64</v>
       </c>
       <c r="J97" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="K97" t="s">
         <v>66</v>
@@ -10246,10 +10247,10 @@
         <v>89</v>
       </c>
       <c r="P97" s="3" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="Q97" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="R97" s="3" t="s">
         <v>29</v>
@@ -10257,31 +10258,31 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="B98" t="s">
+        <v>732</v>
+      </c>
+      <c r="D98" t="s">
+        <v>733</v>
+      </c>
+      <c r="E98" t="s">
+        <v>734</v>
+      </c>
+      <c r="F98" t="s">
         <v>735</v>
-      </c>
-      <c r="B98" t="s">
-        <v>736</v>
-      </c>
-      <c r="D98" t="s">
-        <v>737</v>
-      </c>
-      <c r="E98" t="s">
-        <v>738</v>
-      </c>
-      <c r="F98" t="s">
-        <v>739</v>
       </c>
       <c r="G98">
         <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I98" t="s">
         <v>54</v>
       </c>
       <c r="J98" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="K98" t="s">
         <v>66</v>
@@ -10293,26 +10294,26 @@
         <v>20</v>
       </c>
       <c r="N98" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="O98" s="5" t="s">
         <v>107</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q98" s="3"/>
       <c r="R98" s="3"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="B99" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D99" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="G99">
         <v>2</v>
@@ -10324,43 +10325,43 @@
         <v>54</v>
       </c>
       <c r="J99" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="K99" t="s">
         <v>66</v>
       </c>
       <c r="N99" s="5" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="O99" s="5" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="Q99" s="3" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="R99" s="3"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="19" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="B100" t="s">
         <v>112</v>
       </c>
       <c r="C100" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D100" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="E100" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F100" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G100">
         <v>1.5</v>
@@ -10372,7 +10373,7 @@
         <v>64</v>
       </c>
       <c r="J100" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K100" t="s">
         <v>66</v>
@@ -10384,43 +10385,43 @@
         <v>15</v>
       </c>
       <c r="N100" s="5" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="O100" s="5" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>20</v>
       </c>
       <c r="Q100" s="3" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="R100" s="3"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="19" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="B101" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D101" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="F101" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G101">
         <v>2</v>
       </c>
       <c r="H101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I101" t="s">
         <v>54</v>
       </c>
       <c r="J101" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="K101" t="s">
         <v>66</v>
@@ -10432,7 +10433,7 @@
         <v>15</v>
       </c>
       <c r="N101" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="O101" s="5" t="s">
         <v>11</v>
@@ -10447,31 +10448,31 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="19" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="B102" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D102" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="E102" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F102" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G102">
         <v>1.5</v>
       </c>
       <c r="H102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I102" t="s">
         <v>54</v>
       </c>
       <c r="J102" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="K102" t="s">
         <v>66</v>
@@ -10483,37 +10484,37 @@
         <v>15</v>
       </c>
       <c r="N102" s="5" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="O102" s="5" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Q102" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="R102" s="3"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="B103" t="s">
+        <v>424</v>
+      </c>
+      <c r="C103" t="s">
+        <v>765</v>
+      </c>
+      <c r="D103" t="s">
+        <v>766</v>
+      </c>
+      <c r="E103" t="s">
+        <v>767</v>
+      </c>
+      <c r="F103" t="s">
         <v>768</v>
-      </c>
-      <c r="B103" t="s">
-        <v>427</v>
-      </c>
-      <c r="C103" t="s">
-        <v>769</v>
-      </c>
-      <c r="D103" t="s">
-        <v>770</v>
-      </c>
-      <c r="E103" t="s">
-        <v>771</v>
-      </c>
-      <c r="F103" t="s">
-        <v>772</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -10525,7 +10526,7 @@
         <v>64</v>
       </c>
       <c r="J103" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="K103" t="s">
         <v>66</v>
@@ -10540,43 +10541,43 @@
         <v>18</v>
       </c>
       <c r="O103" s="5" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="Q103" s="3" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="R103" s="3"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="B104" t="s">
+        <v>774</v>
+      </c>
+      <c r="D104" t="s">
+        <v>775</v>
+      </c>
+      <c r="E104" t="s">
+        <v>776</v>
+      </c>
+      <c r="F104" t="s">
         <v>777</v>
-      </c>
-      <c r="B104" t="s">
-        <v>778</v>
-      </c>
-      <c r="D104" t="s">
-        <v>779</v>
-      </c>
-      <c r="E104" t="s">
-        <v>780</v>
-      </c>
-      <c r="F104" t="s">
-        <v>781</v>
       </c>
       <c r="G104">
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I104" t="s">
         <v>64</v>
       </c>
       <c r="J104" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="K104" t="s">
         <v>66</v>
@@ -10594,37 +10595,37 @@
         <v>20</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="19" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="B105" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C105" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D105" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G105">
         <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I105" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="J105" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="K105" t="s">
         <v>84</v>
@@ -10636,34 +10637,34 @@
         <v>100</v>
       </c>
       <c r="N105" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="O105" s="5" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="Q105" s="3" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="R105" s="3"/>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="19" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="B106" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D106" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="E106" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="F106" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="G106">
         <v>1.5</v>
@@ -10675,7 +10676,7 @@
         <v>64</v>
       </c>
       <c r="J106" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="K106" t="s">
         <v>66</v>
@@ -10687,37 +10688,37 @@
         <v>14</v>
       </c>
       <c r="N106" s="5" t="s">
-        <v>338</v>
+        <v>1460</v>
       </c>
       <c r="O106" s="5" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="P106" s="3" t="s">
         <v>23</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="R106" s="3"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="19" t="s">
+        <v>792</v>
+      </c>
+      <c r="B107" t="s">
+        <v>793</v>
+      </c>
+      <c r="C107" t="s">
+        <v>794</v>
+      </c>
+      <c r="D107" t="s">
+        <v>795</v>
+      </c>
+      <c r="E107" t="s">
         <v>796</v>
       </c>
-      <c r="B107" t="s">
+      <c r="F107" t="s">
         <v>797</v>
-      </c>
-      <c r="C107" t="s">
-        <v>798</v>
-      </c>
-      <c r="D107" t="s">
-        <v>799</v>
-      </c>
-      <c r="E107" t="s">
-        <v>800</v>
-      </c>
-      <c r="F107" t="s">
-        <v>801</v>
       </c>
       <c r="G107">
         <v>1.5</v>
@@ -10729,7 +10730,7 @@
         <v>64</v>
       </c>
       <c r="J107" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="K107" t="s">
         <v>66</v>
@@ -10741,35 +10742,35 @@
         <v>20</v>
       </c>
       <c r="N107" s="5" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="O107" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P107" s="3" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="Q107" s="3"/>
       <c r="R107" s="3"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="19" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B108" t="s">
         <v>58</v>
       </c>
       <c r="C108" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="D108" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E108" t="s">
         <v>61</v>
       </c>
       <c r="F108" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -10781,7 +10782,7 @@
         <v>64</v>
       </c>
       <c r="J108" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="K108" t="s">
         <v>66</v>
@@ -10796,22 +10797,22 @@
         <v>67</v>
       </c>
       <c r="O108" s="5" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="P108" s="3" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="Q108" s="3" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="R108" s="3"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="19" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="B109" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -10829,7 +10830,7 @@
         <v>30</v>
       </c>
       <c r="N109" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="O109" s="5" t="s">
         <v>2</v>
@@ -10840,28 +10841,28 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="19" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="B110" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C110" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D110" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="G110">
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I110" t="s">
         <v>64</v>
       </c>
       <c r="J110" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="K110" t="s">
         <v>66</v>
@@ -10873,13 +10874,13 @@
         <v>30</v>
       </c>
       <c r="N110" s="5" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="O110" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="Q110" s="3" t="s">
         <v>107</v>
@@ -10888,22 +10889,22 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="B111" t="s">
+        <v>816</v>
+      </c>
+      <c r="C111" t="s">
+        <v>817</v>
+      </c>
+      <c r="D111" t="s">
+        <v>818</v>
+      </c>
+      <c r="E111" t="s">
         <v>819</v>
       </c>
-      <c r="B111" t="s">
+      <c r="F111" t="s">
         <v>820</v>
-      </c>
-      <c r="C111" t="s">
-        <v>821</v>
-      </c>
-      <c r="D111" t="s">
-        <v>822</v>
-      </c>
-      <c r="E111" t="s">
-        <v>823</v>
-      </c>
-      <c r="F111" t="s">
-        <v>824</v>
       </c>
       <c r="G111">
         <v>1.5</v>
@@ -10912,7 +10913,7 @@
         <v>64</v>
       </c>
       <c r="J111" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K111" t="s">
         <v>66</v>
@@ -10924,46 +10925,46 @@
         <v>10</v>
       </c>
       <c r="N111" s="5" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="O111" s="5" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="P111" s="3" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="Q111" s="3" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="R111" s="3"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="19" t="s">
+        <v>825</v>
+      </c>
+      <c r="B112" t="s">
+        <v>826</v>
+      </c>
+      <c r="D112" t="s">
+        <v>827</v>
+      </c>
+      <c r="E112" t="s">
+        <v>828</v>
+      </c>
+      <c r="F112" t="s">
         <v>829</v>
-      </c>
-      <c r="B112" t="s">
-        <v>830</v>
-      </c>
-      <c r="D112" t="s">
-        <v>831</v>
-      </c>
-      <c r="E112" t="s">
-        <v>832</v>
-      </c>
-      <c r="F112" t="s">
-        <v>833</v>
       </c>
       <c r="G112">
         <v>1.5</v>
       </c>
       <c r="H112" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I112" t="s">
         <v>54</v>
       </c>
       <c r="J112" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="K112" t="s">
         <v>66</v>
@@ -10978,33 +10979,33 @@
         <v>1</v>
       </c>
       <c r="O112" s="5" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="P112" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q112" s="5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="B113" t="s">
+        <v>835</v>
+      </c>
+      <c r="D113" t="s">
+        <v>836</v>
+      </c>
+      <c r="E113" t="s">
+        <v>837</v>
+      </c>
+      <c r="F113" t="s">
         <v>838</v>
-      </c>
-      <c r="B113" t="s">
-        <v>839</v>
-      </c>
-      <c r="D113" t="s">
-        <v>840</v>
-      </c>
-      <c r="E113" t="s">
-        <v>841</v>
-      </c>
-      <c r="F113" t="s">
-        <v>842</v>
       </c>
       <c r="G113">
         <v>0.5</v>
@@ -11025,22 +11026,22 @@
         <v>22</v>
       </c>
       <c r="O113" s="5" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="P113" s="5" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="Q113" s="6" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="R113" s="6"/>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="19" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="B114" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -11055,41 +11056,41 @@
         <v>66</v>
       </c>
       <c r="N114" s="5" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="O114" s="5" t="s">
         <v>151</v>
       </c>
       <c r="P114" s="5" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="Q114" s="6"/>
       <c r="R114" s="6"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="19" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="B115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C115" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D115" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="G115">
         <v>2</v>
       </c>
       <c r="H115" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I115" t="s">
         <v>54</v>
       </c>
       <c r="J115" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="K115" t="s">
         <v>66</v>
@@ -11104,7 +11105,7 @@
         <v>151</v>
       </c>
       <c r="O115" s="5" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="P115" s="5" t="s">
         <v>6</v>
@@ -11118,22 +11119,22 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="19" t="s">
+        <v>851</v>
+      </c>
+      <c r="B116" t="s">
+        <v>852</v>
+      </c>
+      <c r="C116" t="s">
+        <v>853</v>
+      </c>
+      <c r="D116" t="s">
+        <v>854</v>
+      </c>
+      <c r="E116" t="s">
         <v>855</v>
       </c>
-      <c r="B116" t="s">
+      <c r="F116" t="s">
         <v>856</v>
-      </c>
-      <c r="C116" t="s">
-        <v>857</v>
-      </c>
-      <c r="D116" t="s">
-        <v>858</v>
-      </c>
-      <c r="E116" t="s">
-        <v>859</v>
-      </c>
-      <c r="F116" t="s">
-        <v>860</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -11145,7 +11146,7 @@
         <v>64</v>
       </c>
       <c r="J116" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="K116" t="s">
         <v>66</v>
@@ -11163,26 +11164,26 @@
         <v>25</v>
       </c>
       <c r="P116" s="6" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="Q116" s="3"/>
       <c r="R116" s="6"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="19" t="s">
+        <v>858</v>
+      </c>
+      <c r="B117" t="s">
+        <v>859</v>
+      </c>
+      <c r="D117" t="s">
+        <v>860</v>
+      </c>
+      <c r="E117" t="s">
+        <v>861</v>
+      </c>
+      <c r="F117" t="s">
         <v>862</v>
-      </c>
-      <c r="B117" t="s">
-        <v>863</v>
-      </c>
-      <c r="D117" t="s">
-        <v>864</v>
-      </c>
-      <c r="E117" t="s">
-        <v>865</v>
-      </c>
-      <c r="F117" t="s">
-        <v>866</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -11194,7 +11195,7 @@
         <v>54</v>
       </c>
       <c r="J117" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="K117" t="s">
         <v>66</v>
@@ -11215,37 +11216,37 @@
         <v>7</v>
       </c>
       <c r="Q117" s="6" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="R117" s="6"/>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="19" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="B118" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D118" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="E118" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F118" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="G118">
         <v>2</v>
       </c>
       <c r="H118" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I118" t="s">
         <v>54</v>
       </c>
       <c r="J118" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="K118" t="s">
         <v>66</v>
@@ -11257,47 +11258,47 @@
         <v>35</v>
       </c>
       <c r="N118" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="O118" s="6" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="P118" s="6" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="Q118" s="6"/>
       <c r="R118" s="6"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="19" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="B119" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D119" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I119" t="s">
         <v>64</v>
       </c>
       <c r="J119" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="K119" t="s">
         <v>66</v>
       </c>
       <c r="N119" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O119" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="P119" s="5" t="s">
         <v>13</v>
@@ -11307,22 +11308,22 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="19" t="s">
+        <v>876</v>
+      </c>
+      <c r="B120" t="s">
+        <v>629</v>
+      </c>
+      <c r="C120" t="s">
+        <v>877</v>
+      </c>
+      <c r="D120" t="s">
+        <v>878</v>
+      </c>
+      <c r="E120" t="s">
+        <v>879</v>
+      </c>
+      <c r="F120" t="s">
         <v>880</v>
-      </c>
-      <c r="B120" t="s">
-        <v>633</v>
-      </c>
-      <c r="C120" t="s">
-        <v>881</v>
-      </c>
-      <c r="D120" t="s">
-        <v>882</v>
-      </c>
-      <c r="E120" t="s">
-        <v>883</v>
-      </c>
-      <c r="F120" t="s">
-        <v>884</v>
       </c>
       <c r="G120">
         <v>1.5</v>
@@ -11334,7 +11335,7 @@
         <v>54</v>
       </c>
       <c r="J120" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="K120" t="s">
         <v>66</v>
@@ -11346,16 +11347,16 @@
         <v>20</v>
       </c>
       <c r="N120" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O120" s="5" t="s">
-        <v>886</v>
+        <v>633</v>
       </c>
       <c r="P120" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="Q120" s="6" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="R120" s="6" t="s">
         <v>10</v>
@@ -11363,31 +11364,31 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="19" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B121" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D121" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="E121" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F121" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I121" t="s">
         <v>64</v>
       </c>
       <c r="J121" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="K121" t="s">
         <v>66</v>
@@ -11399,49 +11400,49 @@
         <v>25</v>
       </c>
       <c r="N121" s="5" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="O121" s="5" t="s">
         <v>3</v>
       </c>
       <c r="P121" s="6" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="Q121" s="6" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="R121" s="6"/>
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="19" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B122" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C122" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="D122" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="E122" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="F122" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="G122">
         <v>2</v>
       </c>
       <c r="H122" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I122" t="s">
         <v>54</v>
       </c>
       <c r="J122" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="K122" t="s">
         <v>66</v>
@@ -11453,37 +11454,37 @@
         <v>35</v>
       </c>
       <c r="N122" s="5" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="O122" s="6" t="s">
         <v>16</v>
       </c>
       <c r="P122" s="6" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="Q122" s="6" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="R122" s="6"/>
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="B123" t="s">
+        <v>900</v>
+      </c>
+      <c r="C123" t="s">
+        <v>901</v>
+      </c>
+      <c r="D123" t="s">
+        <v>902</v>
+      </c>
+      <c r="E123" t="s">
+        <v>903</v>
+      </c>
+      <c r="F123" t="s">
         <v>904</v>
-      </c>
-      <c r="B123" t="s">
-        <v>905</v>
-      </c>
-      <c r="C123" t="s">
-        <v>906</v>
-      </c>
-      <c r="D123" t="s">
-        <v>907</v>
-      </c>
-      <c r="E123" t="s">
-        <v>908</v>
-      </c>
-      <c r="F123" t="s">
-        <v>909</v>
       </c>
       <c r="G123">
         <v>1.5</v>
@@ -11492,7 +11493,7 @@
         <v>64</v>
       </c>
       <c r="J123" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K123" t="s">
         <v>66</v>
@@ -11504,10 +11505,10 @@
         <v>12</v>
       </c>
       <c r="N123" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="O123" s="10" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="P123" s="11" t="s">
         <v>119</v>
@@ -11519,16 +11520,16 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="19" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C124" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="D124" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G124">
         <v>2</v>
@@ -11540,7 +11541,7 @@
         <v>54</v>
       </c>
       <c r="J124" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K124" t="s">
         <v>66</v>
@@ -11552,39 +11553,39 @@
         <v>25</v>
       </c>
       <c r="O124" s="11" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="P124" s="6" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="Q124" s="6" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="R124" s="6" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="19" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B125" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D125" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="E125" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="F125" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="G125">
         <v>0.5</v>
       </c>
       <c r="I125" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K125" t="s">
         <v>66</v>
@@ -11596,45 +11597,45 @@
         <v>30</v>
       </c>
       <c r="N125" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O125" s="5" t="s">
         <v>3</v>
       </c>
       <c r="P125" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q125" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="R125" s="6" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="19" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="B126" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C126" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="D126" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="G126">
         <v>1.5</v>
       </c>
       <c r="H126" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I126" t="s">
         <v>54</v>
       </c>
       <c r="J126" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="K126" t="s">
         <v>66</v>
@@ -11646,7 +11647,7 @@
         <v>15</v>
       </c>
       <c r="N126" s="5" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="O126" s="5" t="s">
         <v>1</v>
@@ -11659,25 +11660,25 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="19" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="B127" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="D127" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="E127" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F127" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="G127">
         <v>0.5</v>
       </c>
       <c r="I127" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K127" t="s">
         <v>66</v>
@@ -11689,13 +11690,13 @@
         <v>30</v>
       </c>
       <c r="N127" s="5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="O127" s="5" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="P127" s="6" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="Q127" s="6" t="s">
         <v>3</v>
@@ -11704,10 +11705,10 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="19" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="B128" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="G128">
         <v>3</v>
@@ -11719,13 +11720,13 @@
         <v>54</v>
       </c>
       <c r="K128" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N128" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O128" s="6" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
@@ -11733,31 +11734,31 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="19" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="B129" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="C129" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D129" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="E129" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="G129">
         <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="I129" t="s">
         <v>54</v>
       </c>
       <c r="J129" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="K129" t="s">
         <v>66</v>
@@ -11766,22 +11767,22 @@
         <v>2</v>
       </c>
       <c r="O129" s="22" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P129" s="6" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="Q129" s="6" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="R129" s="6"/>
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="19" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="B130" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="G130">
         <v>2</v>
@@ -11802,17 +11803,17 @@
         <v>16</v>
       </c>
       <c r="P130" s="6" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="Q130" s="6"/>
       <c r="R130" s="6"/>
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="19" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="B131" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="G131">
         <v>2</v>
@@ -11824,13 +11825,13 @@
         <v>54</v>
       </c>
       <c r="K131" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N131" s="5" t="s">
         <v>55</v>
       </c>
       <c r="O131" s="6" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
@@ -11838,34 +11839,34 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="19" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C132" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="D132" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="E132" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="F132" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="G132">
         <v>2</v>
       </c>
       <c r="H132" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I132" t="s">
         <v>54</v>
       </c>
       <c r="J132" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="K132" t="s">
         <v>66</v>
@@ -11877,10 +11878,10 @@
         <v>15</v>
       </c>
       <c r="N132" s="5" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="O132" s="5" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="P132" s="6" t="s">
         <v>81</v>
@@ -11892,22 +11893,22 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="19" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="B133" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C133" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D133" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="E133" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="F133" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -11931,34 +11932,34 @@
         <v>20</v>
       </c>
       <c r="N133" s="10" t="s">
+        <v>952</v>
+      </c>
+      <c r="O133" s="10" t="s">
+        <v>814</v>
+      </c>
+      <c r="P133" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q133" s="6" t="s">
         <v>957</v>
-      </c>
-      <c r="O133" s="10" t="s">
-        <v>818</v>
-      </c>
-      <c r="P133" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q133" s="6" t="s">
-        <v>962</v>
       </c>
       <c r="R133" s="6"/>
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="19" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="B134" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="D134" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="E134" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F134" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11970,7 +11971,7 @@
         <v>64</v>
       </c>
       <c r="J134" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="K134" t="s">
         <v>66</v>
@@ -11982,13 +11983,13 @@
         <v>20</v>
       </c>
       <c r="N134" s="5" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O134" s="10" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="P134" s="10" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="Q134" s="10" t="s">
         <v>1</v>
@@ -11997,13 +11998,13 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B135" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="D135" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="G135">
         <v>2</v>
@@ -12015,55 +12016,55 @@
         <v>186</v>
       </c>
       <c r="J135" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="K135" t="s">
         <v>84</v>
       </c>
       <c r="N135" s="5" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="O135" s="5" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="P135" s="5" t="s">
         <v>13</v>
       </c>
       <c r="Q135" s="6" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="R135" s="6"/>
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="19" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C136" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="D136" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="E136" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F136" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G136">
         <v>1.5</v>
       </c>
       <c r="H136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I136" t="s">
         <v>54</v>
       </c>
       <c r="J136" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="K136" t="s">
         <v>66</v>
@@ -12087,24 +12088,24 @@
         <v>151</v>
       </c>
       <c r="R136" s="6" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="19" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="B137" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D137" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="E137" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F137" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12116,7 +12117,7 @@
         <v>54</v>
       </c>
       <c r="J137" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="K137" t="s">
         <v>84</v>
@@ -12137,7 +12138,7 @@
         <v>6</v>
       </c>
       <c r="Q137" s="6" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="R137" s="6" t="s">
         <v>15</v>
@@ -12145,28 +12146,28 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="19" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="B138" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="C138" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="D138" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="G138">
         <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I138" t="s">
         <v>64</v>
       </c>
       <c r="J138" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="K138" t="s">
         <v>84</v>
@@ -12181,41 +12182,41 @@
         <v>13</v>
       </c>
       <c r="O138" s="5" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="P138" s="6" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="Q138" s="6"/>
       <c r="R138" s="6"/>
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="19" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B139" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D139" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="E139" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="F139" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="G139">
         <v>2</v>
       </c>
       <c r="H139" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I139" t="s">
         <v>54</v>
       </c>
       <c r="J139" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="K139" t="s">
         <v>66</v>
@@ -12227,48 +12228,48 @@
         <v>15</v>
       </c>
       <c r="N139" s="5" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="O139" s="5" t="s">
         <v>13</v>
       </c>
       <c r="P139" s="5" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="Q139" s="6" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="R139" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="19" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D140" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="E140" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F140" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="G140">
         <v>2</v>
       </c>
       <c r="H140" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I140" t="s">
         <v>54</v>
       </c>
       <c r="J140" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="K140" t="s">
         <v>66</v>
@@ -12280,46 +12281,46 @@
         <v>15</v>
       </c>
       <c r="N140" s="5" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="O140" s="6" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="P140" s="6" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="Q140" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="R140" s="6"/>
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="19" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="B141" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D141" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="E141" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="F141" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="G141">
         <v>2</v>
       </c>
       <c r="H141" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I141" t="s">
         <v>54</v>
       </c>
       <c r="J141" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="K141" t="s">
         <v>66</v>
@@ -12331,40 +12332,40 @@
         <v>15</v>
       </c>
       <c r="N141" s="5" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="O141" s="6" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="P141" s="6" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="Q141" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="R141" s="6"/>
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="19" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="B142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D142" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="G142">
         <v>2</v>
       </c>
       <c r="H142" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I142" t="s">
         <v>54</v>
       </c>
       <c r="J142" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="K142" t="s">
         <v>66</v>
@@ -12376,10 +12377,10 @@
         <v>15</v>
       </c>
       <c r="N142" s="5" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="O142" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="P142" s="6" t="s">
         <v>13</v>
@@ -12389,13 +12390,13 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="19" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B143" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C143" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="G143">
         <v>2</v>
@@ -12413,29 +12414,29 @@
         <v>1</v>
       </c>
       <c r="O143" s="6" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="P143" s="6" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="Q143" s="6"/>
       <c r="R143" s="6"/>
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="B144" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C144" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="D144" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="E144" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="G144">
         <v>1</v>
@@ -12447,7 +12448,7 @@
         <v>54</v>
       </c>
       <c r="J144" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="K144" t="s">
         <v>66</v>
@@ -12459,37 +12460,37 @@
         <v>15</v>
       </c>
       <c r="N144" s="5" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="O144" s="10" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="P144" s="10" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="Q144" s="10" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="R144" s="6"/>
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="19" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F145" t="s">
         <v>1034</v>
-      </c>
-      <c r="B145" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C145" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D145" t="s">
-        <v>1037</v>
-      </c>
-      <c r="E145" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F145" t="s">
-        <v>1039</v>
       </c>
       <c r="G145">
         <v>0.5</v>
@@ -12501,7 +12502,7 @@
         <v>64</v>
       </c>
       <c r="J145" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="K145" t="s">
         <v>66</v>
@@ -12513,25 +12514,25 @@
         <v>15</v>
       </c>
       <c r="N145" s="5" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="O145" s="10" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="P145" s="10" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="Q145" s="6" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="R145" s="6"/>
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="19" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="B146" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -12543,38 +12544,38 @@
         <v>54</v>
       </c>
       <c r="K146" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="O146" s="10" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P146" s="6" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="Q146" s="6"/>
       <c r="R146" s="6"/>
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F147" t="s">
         <v>1045</v>
-      </c>
-      <c r="B147" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C147" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D147" t="s">
-        <v>1048</v>
-      </c>
-      <c r="E147" t="s">
-        <v>1049</v>
-      </c>
-      <c r="F147" t="s">
-        <v>1050</v>
       </c>
       <c r="G147">
         <v>0.5</v>
@@ -12598,7 +12599,7 @@
         <v>119</v>
       </c>
       <c r="P147" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="Q147" s="6" t="s">
         <v>23</v>
@@ -12607,13 +12608,13 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="19" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="B148" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C148" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -12625,13 +12626,13 @@
         <v>54</v>
       </c>
       <c r="N148" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="O148" s="10" t="s">
         <v>2</v>
       </c>
       <c r="P148" s="10" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="Q148" s="6" t="s">
         <v>16</v>
@@ -12640,19 +12641,19 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="19" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="B149" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="D149" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="E149" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="F149" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G149">
         <v>2</v>
@@ -12664,7 +12665,7 @@
         <v>54</v>
       </c>
       <c r="J149" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="K149" t="s">
         <v>66</v>
@@ -12682,23 +12683,23 @@
         <v>6</v>
       </c>
       <c r="P149" s="10" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="Q149" s="3"/>
       <c r="R149" s="3"/>
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="19" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="B150" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="C150" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="D150" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="G150">
         <v>2</v>
@@ -12707,10 +12708,10 @@
         <v>76</v>
       </c>
       <c r="I150" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="J150" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="K150" t="s">
         <v>84</v>
@@ -12722,7 +12723,7 @@
         <v>20</v>
       </c>
       <c r="N150" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O150" s="3" t="s">
         <v>5</v>
@@ -12731,21 +12732,21 @@
         <v>14</v>
       </c>
       <c r="Q150" s="3" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="R150" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="19" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="B151" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C151" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="G151">
         <v>2</v>
@@ -12757,26 +12758,26 @@
         <v>54</v>
       </c>
       <c r="K151" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N151" s="3" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="O151" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P151" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q151" s="3"/>
       <c r="R151" s="3"/>
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="19" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="B152" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="G152">
         <v>1</v>
@@ -12791,28 +12792,28 @@
         <v>66</v>
       </c>
       <c r="N152" s="3" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="O152" s="3" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="P152" s="3" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="Q152" s="3" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="R152" s="3"/>
     </row>
     <row r="153" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A153" s="21" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="G153" s="16">
         <v>2</v>
@@ -12824,38 +12825,38 @@
         <v>54</v>
       </c>
       <c r="K153" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N153" s="17" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="O153" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P153" s="17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Q153" s="17"/>
       <c r="R153" s="17"/>
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="19" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F154" t="s">
         <v>1079</v>
-      </c>
-      <c r="B154" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D154" t="s">
-        <v>1082</v>
-      </c>
-      <c r="E154" t="s">
-        <v>1083</v>
-      </c>
-      <c r="F154" t="s">
-        <v>1084</v>
       </c>
       <c r="G154">
         <v>1.5</v>
@@ -12867,7 +12868,7 @@
         <v>64</v>
       </c>
       <c r="J154" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K154" t="s">
         <v>66</v>
@@ -12879,7 +12880,7 @@
         <v>14</v>
       </c>
       <c r="N154" s="3" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="O154" s="3" t="s">
         <v>19</v>
@@ -12894,16 +12895,16 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="19" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B155" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C155" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="D155" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -12915,7 +12916,7 @@
         <v>186</v>
       </c>
       <c r="J155" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="K155" t="s">
         <v>66</v>
@@ -12942,19 +12943,19 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="19" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B156" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="D156" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="E156" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="F156" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -12966,10 +12967,10 @@
         <v>54</v>
       </c>
       <c r="J156" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="K156" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L156">
         <v>5</v>
@@ -12987,40 +12988,40 @@
         <v>19</v>
       </c>
       <c r="Q156" s="3" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="R156" s="3"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F157" t="s">
         <v>1097</v>
-      </c>
-      <c r="B157" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C157" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D157" t="s">
-        <v>1100</v>
-      </c>
-      <c r="E157" t="s">
-        <v>1101</v>
-      </c>
-      <c r="F157" t="s">
-        <v>1102</v>
       </c>
       <c r="G157">
         <v>2</v>
       </c>
       <c r="H157" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I157" t="s">
         <v>54</v>
       </c>
       <c r="J157" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="K157" t="s">
         <v>66</v>
@@ -13038,40 +13039,40 @@
         <v>16</v>
       </c>
       <c r="P157" s="3" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="Q157" s="3" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="R157" s="3"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="19" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="B158" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D158" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="E158" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="F158" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="G158">
         <v>1.5</v>
       </c>
       <c r="H158" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I158" t="s">
         <v>54</v>
       </c>
       <c r="J158" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="K158" t="s">
         <v>66</v>
@@ -13092,27 +13093,27 @@
         <v>10</v>
       </c>
       <c r="Q158" s="3" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="R158" s="3" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="19" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="B159" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D159" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="E159" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="F159" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="G159">
         <v>1.5</v>
@@ -13124,7 +13125,7 @@
         <v>64</v>
       </c>
       <c r="J159" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="K159" t="s">
         <v>66</v>
@@ -13149,22 +13150,22 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="19" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1114</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F160" t="s">
         <v>1116</v>
-      </c>
-      <c r="B160" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C160" t="s">
-        <v>1118</v>
-      </c>
-      <c r="D160" t="s">
-        <v>1119</v>
-      </c>
-      <c r="E160" t="s">
-        <v>1120</v>
-      </c>
-      <c r="F160" t="s">
-        <v>1121</v>
       </c>
       <c r="G160">
         <v>1.5</v>
@@ -13176,7 +13177,7 @@
         <v>64</v>
       </c>
       <c r="J160" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="K160" t="s">
         <v>66</v>
@@ -13201,13 +13202,13 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="19" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="B161" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="D161" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="G161">
         <v>1.5</v>
@@ -13219,7 +13220,7 @@
         <v>127</v>
       </c>
       <c r="J161" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="K161" t="s">
         <v>66</v>
@@ -13231,19 +13232,19 @@
         <v>14</v>
       </c>
       <c r="P161" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="Q161" s="3" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="R161" s="3"/>
     </row>
     <row r="162" spans="1:18" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A162" s="20" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="G162" s="7">
         <v>2</v>
@@ -13252,13 +13253,13 @@
         <v>76</v>
       </c>
       <c r="I162" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="K162" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N162" s="12" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="O162" s="12"/>
       <c r="P162" s="12"/>
@@ -13267,22 +13268,22 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="19" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="B163" t="s">
         <v>91</v>
       </c>
       <c r="C163" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="D163" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E163" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="F163" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="G163">
         <v>0.5</v>
@@ -13309,7 +13310,7 @@
         <v>96</v>
       </c>
       <c r="Q163" s="3" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="R163" s="3" t="s">
         <v>119</v>
@@ -13317,19 +13318,19 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="19" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="B164" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D164" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E164" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="F164" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -13341,7 +13342,7 @@
         <v>64</v>
       </c>
       <c r="J164" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="K164" t="s">
         <v>66</v>
@@ -13365,27 +13366,27 @@
         <v>14</v>
       </c>
       <c r="R164" s="3" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="19" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B165" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D165" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F165" t="s">
         <v>1142</v>
-      </c>
-      <c r="B165" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C165" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D165" t="s">
-        <v>1145</v>
-      </c>
-      <c r="E165" t="s">
-        <v>1146</v>
-      </c>
-      <c r="F165" t="s">
-        <v>1147</v>
       </c>
       <c r="G165">
         <v>0.5</v>
@@ -13406,7 +13407,7 @@
         <v>23</v>
       </c>
       <c r="O165" s="3" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="P165" s="3" t="s">
         <v>20</v>
@@ -13415,18 +13416,18 @@
         <v>14</v>
       </c>
       <c r="R165" s="3" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="19" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="B166" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C166" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="H166" t="s">
         <v>53</v>
@@ -13438,7 +13439,7 @@
         <v>25</v>
       </c>
       <c r="O166" s="3" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="P166" s="3"/>
       <c r="Q166" s="3"/>
@@ -13446,31 +13447,31 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="19" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="B167" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C167" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="D167" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E167" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="G167">
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I167" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="J167" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="K167" t="s">
         <v>66</v>
@@ -13494,27 +13495,27 @@
         <v>12</v>
       </c>
       <c r="R167" s="3" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="19" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1155</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F168" t="s">
         <v>1158</v>
-      </c>
-      <c r="B168" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C168" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D168" t="s">
-        <v>1161</v>
-      </c>
-      <c r="E168" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F168" t="s">
-        <v>1163</v>
       </c>
       <c r="G168">
         <v>2</v>
@@ -13526,13 +13527,13 @@
         <v>64</v>
       </c>
       <c r="J168" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="K168" t="s">
         <v>66</v>
       </c>
       <c r="N168" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O168" s="3" t="s">
         <v>14</v>
@@ -13547,16 +13548,16 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="19" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="B169" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="C169" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="D169" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="H169" t="s">
         <v>63</v>
@@ -13565,39 +13566,39 @@
         <v>64</v>
       </c>
       <c r="J169" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="N169" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="O169" s="3" t="s">
         <v>14</v>
       </c>
       <c r="P169" s="3" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="Q169" s="3" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="R169" s="3" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="19" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="B170" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="C170" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="D170" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="E170" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="G170">
         <v>0.5</v>
@@ -13606,10 +13607,10 @@
         <v>63</v>
       </c>
       <c r="I170" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="J170" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="K170" t="s">
         <v>66</v>
@@ -13621,13 +13622,13 @@
         <v>20</v>
       </c>
       <c r="N170" s="3" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="O170" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P170" s="3" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="Q170" s="3" t="s">
         <v>14</v>
@@ -13638,19 +13639,19 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="19" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="B171" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C171" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="G171">
         <v>2</v>
       </c>
       <c r="H171" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I171" t="s">
         <v>54</v>
@@ -13662,38 +13663,38 @@
         <v>16</v>
       </c>
       <c r="O171" s="3" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="P171" s="3" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="Q171" s="3"/>
       <c r="R171" s="3"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="19" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="B172" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C172" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="D172" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="G172">
         <v>2</v>
       </c>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I172" t="s">
         <v>54</v>
       </c>
       <c r="J172" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="K172" t="s">
         <v>66</v>
@@ -13708,28 +13709,28 @@
         <v>16</v>
       </c>
       <c r="O172" s="3" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="P172" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q172" s="3" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="R172" s="3"/>
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="19" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="B173" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="C173" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="D173" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -13738,10 +13739,10 @@
         <v>63</v>
       </c>
       <c r="I173" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="J173" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="K173" t="s">
         <v>84</v>
@@ -13753,7 +13754,7 @@
         <v>20</v>
       </c>
       <c r="N173" s="3" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="O173" s="3" t="s">
         <v>16</v>
@@ -13762,16 +13763,16 @@
         <v>10</v>
       </c>
       <c r="Q173" s="3" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="R173" s="3"/>
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="19" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="B174" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -13786,7 +13787,7 @@
         <v>16</v>
       </c>
       <c r="O174" s="3" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="P174" s="3" t="s">
         <v>2</v>
@@ -13796,16 +13797,16 @@
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="19" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="B175" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C175" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="D175" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -13817,7 +13818,7 @@
         <v>186</v>
       </c>
       <c r="J175" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="K175" t="s">
         <v>66</v>
@@ -13835,30 +13836,30 @@
         <v>14</v>
       </c>
       <c r="R175" s="3" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="19" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="B176" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="D176" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="G176">
         <v>1</v>
       </c>
       <c r="H176" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="I176" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="J176" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="K176" t="s">
         <v>66</v>
@@ -13873,40 +13874,40 @@
         <v>2</v>
       </c>
       <c r="Q176" s="3" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="R176" s="3"/>
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" s="19" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F177" t="s">
         <v>1209</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C177" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D177" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E177" t="s">
-        <v>1213</v>
-      </c>
-      <c r="F177" t="s">
-        <v>1214</v>
       </c>
       <c r="G177">
         <v>2</v>
       </c>
       <c r="H177" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I177" t="s">
         <v>54</v>
       </c>
       <c r="J177" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="K177" t="s">
         <v>66</v>
@@ -13924,7 +13925,7 @@
         <v>13</v>
       </c>
       <c r="P177" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="Q177" s="3" t="s">
         <v>10</v>
@@ -13933,19 +13934,19 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" s="19" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="B178" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D178" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="E178" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="F178" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="G178">
         <v>1</v>
@@ -13957,7 +13958,7 @@
         <v>64</v>
       </c>
       <c r="J178" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="K178" t="s">
         <v>66</v>
@@ -13975,33 +13976,33 @@
         <v>18</v>
       </c>
       <c r="P178" s="3" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="Q178" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R178" s="3" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" s="19" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="B179" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="C179" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="D179" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="E179" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="F179" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G179">
         <v>2</v>
@@ -14013,7 +14014,7 @@
         <v>54</v>
       </c>
       <c r="J179" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="K179" t="s">
         <v>66</v>
@@ -14034,16 +14035,16 @@
         <v>1</v>
       </c>
       <c r="Q179" s="3" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="R179" s="3"/>
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="19" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="B180" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -14055,16 +14056,16 @@
         <v>54</v>
       </c>
       <c r="K180" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N180" s="3" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="O180" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P180" s="3" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="Q180" s="3" t="s">
         <v>16</v>
@@ -14073,10 +14074,10 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="19" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="B181" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -14100,16 +14101,16 @@
         <v>56</v>
       </c>
       <c r="Q181" s="3" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="R181" s="3"/>
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="19" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="B182" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="G182">
         <v>2</v>
@@ -14121,44 +14122,44 @@
         <v>54</v>
       </c>
       <c r="K182" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N182" s="3" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="O182" s="3" t="s">
         <v>1</v>
       </c>
       <c r="P182" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="Q182" s="3"/>
       <c r="R182" s="3"/>
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="19" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="B183" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="D183" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="F183" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="G183">
         <v>1.5</v>
       </c>
       <c r="H183" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I183" t="s">
         <v>54</v>
       </c>
       <c r="J183" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="K183" t="s">
         <v>66</v>
@@ -14170,13 +14171,13 @@
         <v>15</v>
       </c>
       <c r="N183" s="3" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="O183" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P183" s="3" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="Q183" s="3" t="s">
         <v>10</v>
@@ -14191,7 +14192,7 @@
         <v>102</v>
       </c>
       <c r="D184" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="G184">
         <v>2</v>
@@ -14203,7 +14204,7 @@
         <v>186</v>
       </c>
       <c r="J184" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="K184" t="s">
         <v>66</v>
@@ -14218,7 +14219,7 @@
         <v>106</v>
       </c>
       <c r="O184" s="3" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="P184" s="3" t="s">
         <v>100</v>
@@ -14230,31 +14231,31 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="19" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="B185" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C185" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="D185" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="E185" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="G185">
         <v>1.5</v>
       </c>
       <c r="H185" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I185" t="s">
         <v>54</v>
       </c>
       <c r="J185" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="K185" t="s">
         <v>66</v>
@@ -14266,13 +14267,13 @@
         <v>15</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="P185" s="3" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="Q185" s="3" t="s">
         <v>1</v>
@@ -14281,22 +14282,22 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="19" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B186" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D186" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F186" t="s">
         <v>1254</v>
-      </c>
-      <c r="B186" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C186" t="s">
-        <v>1256</v>
-      </c>
-      <c r="D186" t="s">
-        <v>1257</v>
-      </c>
-      <c r="E186" t="s">
-        <v>1258</v>
-      </c>
-      <c r="F186" t="s">
-        <v>1259</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -14308,7 +14309,7 @@
         <v>64</v>
       </c>
       <c r="J186" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="K186" t="s">
         <v>66</v>
@@ -14320,31 +14321,31 @@
         <v>12</v>
       </c>
       <c r="N186" s="3" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="O186" s="3" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="P186" s="3" t="s">
         <v>10</v>
       </c>
       <c r="Q186" s="3" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="R186" s="3"/>
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="19" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="B187" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="C187" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="D187" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="G187">
         <v>0.5</v>
@@ -14362,37 +14363,37 @@
         <v>12</v>
       </c>
       <c r="N187" s="3" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="O187" s="3" t="s">
         <v>18</v>
       </c>
       <c r="P187" s="3" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="Q187" s="3" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="R187" s="3"/>
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="19" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F188" t="s">
         <v>1269</v>
-      </c>
-      <c r="B188" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C188" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D188" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E188" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F188" t="s">
-        <v>1274</v>
       </c>
       <c r="G188">
         <v>1</v>
@@ -14404,7 +14405,7 @@
         <v>64</v>
       </c>
       <c r="J188" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="K188" t="s">
         <v>66</v>
@@ -14416,7 +14417,7 @@
         <v>16</v>
       </c>
       <c r="N188" s="3" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="O188" s="3" t="s">
         <v>21</v>
@@ -14425,28 +14426,28 @@
         <v>25</v>
       </c>
       <c r="Q188" s="3" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="R188" s="3"/>
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="19" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="B189" t="s">
         <v>153</v>
       </c>
       <c r="C189" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="D189" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="E189" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="F189" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="G189">
         <v>1</v>
@@ -14476,29 +14477,29 @@
         <v>158</v>
       </c>
       <c r="P189" s="3" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="Q189" s="3"/>
       <c r="R189" s="3"/>
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="19" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F190" t="s">
         <v>1283</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1286</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1287</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1288</v>
       </c>
       <c r="G190">
         <v>1.5</v>
@@ -14510,7 +14511,7 @@
         <v>64</v>
       </c>
       <c r="J190" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K190" t="s">
         <v>66</v>
@@ -14522,7 +14523,7 @@
         <v>14</v>
       </c>
       <c r="N190" s="3" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="O190" s="3" t="s">
         <v>119</v>
@@ -14537,19 +14538,19 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="19" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="B191" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="C191" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="D191" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="E191" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="G191">
         <v>2</v>
@@ -14561,7 +14562,7 @@
         <v>186</v>
       </c>
       <c r="J191" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="K191" t="s">
         <v>66</v>
@@ -14573,36 +14574,36 @@
         <v>180</v>
       </c>
       <c r="N191" s="3" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="O191" s="3" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="P191" s="3" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="Q191" s="3" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="R191" s="3" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="19" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="B192" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D192" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="E192" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="F192" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -14614,7 +14615,7 @@
         <v>64</v>
       </c>
       <c r="J192" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="K192" t="s">
         <v>66</v>
@@ -14626,35 +14627,35 @@
         <v>16</v>
       </c>
       <c r="N192" s="3" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="O192" s="3" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="P192" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="Q192" s="3"/>
       <c r="R192" s="3"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="19" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="B193" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="C193" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="D193" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="E193" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="F193" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -14684,24 +14685,24 @@
         <v>17</v>
       </c>
       <c r="Q193" s="3" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="R193" s="3" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="19" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="B194" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="C194" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="D194" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -14728,7 +14729,7 @@
         <v>1</v>
       </c>
       <c r="P194" s="3" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="Q194" s="3" t="s">
         <v>16</v>
@@ -14737,31 +14738,31 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="19" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="B195" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D195" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="E195" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="F195" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G195">
         <v>1</v>
       </c>
       <c r="H195" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I195" t="s">
         <v>64</v>
       </c>
       <c r="J195" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K195" t="s">
         <v>66</v>
@@ -14773,43 +14774,43 @@
         <v>20</v>
       </c>
       <c r="N195" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="O195" s="3" t="s">
         <v>2</v>
       </c>
       <c r="P195" s="3" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="Q195" s="3" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="R195" s="3"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="19" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="B196" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="C196" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="D196" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="G196">
         <v>2</v>
       </c>
       <c r="H196" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I196" t="s">
         <v>54</v>
       </c>
       <c r="J196" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="K196" t="s">
         <v>66</v>
@@ -14818,7 +14819,7 @@
         <v>13</v>
       </c>
       <c r="O196" s="3" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="P196" s="3" t="s">
         <v>10</v>
@@ -14830,34 +14831,34 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="19" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="B197" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C197" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="D197" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="E197" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="F197" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="G197">
         <v>2</v>
       </c>
       <c r="H197" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I197" t="s">
         <v>54</v>
       </c>
       <c r="J197" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="K197" t="s">
         <v>66</v>
@@ -14869,13 +14870,13 @@
         <v>15</v>
       </c>
       <c r="N197" s="3" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="O197" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P197" s="3" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="Q197" s="3" t="s">
         <v>3</v>
@@ -14884,25 +14885,25 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="19" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="B198" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D198" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="G198">
         <v>2</v>
       </c>
       <c r="H198" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I198" t="s">
         <v>54</v>
       </c>
       <c r="J198" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="K198" t="s">
         <v>66</v>
@@ -14914,10 +14915,10 @@
         <v>20</v>
       </c>
       <c r="N198" s="3" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="O198" s="3" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="P198" s="3" t="s">
         <v>13</v>
@@ -14929,19 +14930,19 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="19" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="B199" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="C199" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="F199" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="G199">
         <v>1.5</v>
@@ -14953,7 +14954,7 @@
         <v>64</v>
       </c>
       <c r="J199" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="K199" t="s">
         <v>66</v>
@@ -14965,32 +14966,32 @@
         <v>14</v>
       </c>
       <c r="N199" s="3" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="O199" s="3" t="s">
         <v>119</v>
       </c>
       <c r="P199" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="Q199" s="3"/>
       <c r="R199" s="3"/>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="19" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="B200" t="s">
-        <v>1347</v>
+        <v>1342</v>
       </c>
       <c r="D200" t="s">
-        <v>1348</v>
+        <v>1343</v>
       </c>
       <c r="E200" t="s">
-        <v>1349</v>
+        <v>1344</v>
       </c>
       <c r="F200" t="s">
-        <v>1350</v>
+        <v>1345</v>
       </c>
       <c r="G200">
         <v>0.5</v>
@@ -15002,7 +15003,7 @@
         <v>64</v>
       </c>
       <c r="J200" t="s">
-        <v>1351</v>
+        <v>1346</v>
       </c>
       <c r="K200" t="s">
         <v>66</v>
@@ -15014,10 +15015,10 @@
         <v>20</v>
       </c>
       <c r="N200" s="3" t="s">
-        <v>1352</v>
+        <v>1347</v>
       </c>
       <c r="O200" s="3" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="P200" s="3" t="s">
         <v>119</v>
@@ -15027,10 +15028,10 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="19" t="s">
-        <v>1353</v>
+        <v>1348</v>
       </c>
       <c r="B201" t="s">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="G201">
         <v>2</v>
@@ -15042,13 +15043,13 @@
         <v>54</v>
       </c>
       <c r="K201" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="N201" s="3" t="s">
         <v>179</v>
       </c>
       <c r="O201" s="3" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="P201" s="3" t="s">
         <v>1</v>
@@ -15058,16 +15059,16 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="19" t="s">
-        <v>1355</v>
+        <v>1350</v>
       </c>
       <c r="B202" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C202" t="s">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="D202" t="s">
-        <v>1357</v>
+        <v>1352</v>
       </c>
       <c r="G202">
         <v>1</v>
@@ -15079,7 +15080,7 @@
         <v>54</v>
       </c>
       <c r="J202" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="K202" t="s">
         <v>66</v>
@@ -15091,37 +15092,37 @@
         <v>15</v>
       </c>
       <c r="N202" s="3" t="s">
-        <v>1359</v>
+        <v>1354</v>
       </c>
       <c r="O202" s="3" t="s">
-        <v>1360</v>
+        <v>1355</v>
       </c>
       <c r="P202" s="3" t="s">
-        <v>1361</v>
+        <v>1356</v>
       </c>
       <c r="Q202" s="3" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="R202" s="3"/>
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="19" t="s">
-        <v>1362</v>
+        <v>1357</v>
       </c>
       <c r="B203" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="C203" t="s">
-        <v>1364</v>
+        <v>1359</v>
       </c>
       <c r="D203" t="s">
-        <v>1365</v>
+        <v>1360</v>
       </c>
       <c r="G203">
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K203" t="s">
         <v>66</v>
@@ -15142,10 +15143,10 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="19" t="s">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="B204" t="s">
-        <v>1367</v>
+        <v>1362</v>
       </c>
       <c r="H204" t="s">
         <v>53</v>
@@ -15165,10 +15166,10 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="19" t="s">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="B205" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="H205" t="s">
         <v>53</v>
@@ -15180,7 +15181,7 @@
         <v>25</v>
       </c>
       <c r="O205" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="P205" s="3" t="s">
         <v>151</v>
@@ -15190,16 +15191,16 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="19" t="s">
-        <v>1370</v>
+        <v>1365</v>
       </c>
       <c r="B206" t="s">
-        <v>1371</v>
+        <v>1366</v>
       </c>
       <c r="C206" t="s">
-        <v>1372</v>
+        <v>1367</v>
       </c>
       <c r="D206" t="s">
-        <v>1373</v>
+        <v>1368</v>
       </c>
       <c r="G206">
         <v>1</v>
@@ -15211,7 +15212,7 @@
         <v>64</v>
       </c>
       <c r="J206" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K206" t="s">
         <v>66</v>
@@ -15226,28 +15227,28 @@
         <v>18</v>
       </c>
       <c r="Q206" s="3" t="s">
-        <v>1374</v>
+        <v>1369</v>
       </c>
       <c r="R206" s="3"/>
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="19" t="s">
-        <v>1375</v>
+        <v>1370</v>
       </c>
       <c r="B207" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C207" t="s">
         <v>1371</v>
       </c>
-      <c r="C207" t="s">
-        <v>1376</v>
-      </c>
       <c r="D207" t="s">
-        <v>1377</v>
+        <v>1372</v>
       </c>
       <c r="E207" t="s">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="F207" t="s">
-        <v>1379</v>
+        <v>1374</v>
       </c>
       <c r="G207">
         <v>1</v>
@@ -15259,7 +15260,7 @@
         <v>64</v>
       </c>
       <c r="J207" t="s">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="K207" t="s">
         <v>66</v>
@@ -15288,13 +15289,13 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="19" t="s">
-        <v>1380</v>
+        <v>1375</v>
       </c>
       <c r="B208" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C208" t="s">
-        <v>1381</v>
+        <v>1376</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -15318,13 +15319,13 @@
         <v>25</v>
       </c>
       <c r="O208" s="3" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="P208" s="3" t="s">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="Q208" s="3" t="s">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="R208" s="3" t="s">
         <v>179</v>
@@ -15332,22 +15333,22 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" s="19" t="s">
-        <v>1384</v>
+        <v>1379</v>
       </c>
       <c r="B209" t="s">
-        <v>1385</v>
+        <v>1380</v>
       </c>
       <c r="D209" t="s">
-        <v>1386</v>
+        <v>1381</v>
       </c>
       <c r="F209" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G209">
         <v>2</v>
       </c>
       <c r="H209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I209" t="s">
         <v>54</v>
@@ -15365,23 +15366,23 @@
         <v>10</v>
       </c>
       <c r="Q209" s="3" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="R209" s="3"/>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="19" t="s">
-        <v>1388</v>
+        <v>1383</v>
       </c>
       <c r="B210" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="D210" t="s">
-        <v>1389</v>
+        <v>1384</v>
       </c>
       <c r="G210" s="14"/>
       <c r="H210" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I210" t="s">
         <v>54</v>
@@ -15400,34 +15401,34 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" s="19" t="s">
-        <v>1390</v>
+        <v>1385</v>
       </c>
       <c r="B211" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C211" t="s">
-        <v>1391</v>
+        <v>1386</v>
       </c>
       <c r="D211" t="s">
-        <v>1392</v>
+        <v>1387</v>
       </c>
       <c r="E211" t="s">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="F211" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G211">
         <v>2</v>
       </c>
       <c r="H211" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I211" t="s">
         <v>54</v>
       </c>
       <c r="J211" t="s">
-        <v>1394</v>
+        <v>1389</v>
       </c>
       <c r="K211" t="s">
         <v>66</v>
@@ -15438,21 +15439,27 @@
       <c r="M211">
         <v>20</v>
       </c>
-      <c r="N211" s="3"/>
-      <c r="O211" s="3"/>
-      <c r="P211" s="3"/>
+      <c r="N211" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O211" s="23" t="s">
+        <v>950</v>
+      </c>
+      <c r="P211" s="23" t="s">
+        <v>37</v>
+      </c>
       <c r="Q211" s="3"/>
       <c r="R211" s="3"/>
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" s="19" t="s">
-        <v>1395</v>
+        <v>1390</v>
       </c>
       <c r="B212" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="D212" t="s">
-        <v>1396</v>
+        <v>1391</v>
       </c>
       <c r="G212">
         <v>1</v>
@@ -15464,7 +15471,7 @@
         <v>64</v>
       </c>
       <c r="J212" t="s">
-        <v>1397</v>
+        <v>1392</v>
       </c>
       <c r="K212" t="s">
         <v>66</v>
@@ -15476,10 +15483,10 @@
         <v>20</v>
       </c>
       <c r="N212" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>1387</v>
+        <v>1382</v>
       </c>
       <c r="P212" s="3" t="s">
         <v>150</v>
@@ -15491,25 +15498,25 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" s="19" t="s">
-        <v>1398</v>
+        <v>1393</v>
       </c>
       <c r="B213" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="D213" t="s">
-        <v>1399</v>
+        <v>1394</v>
       </c>
       <c r="G213">
         <v>2</v>
       </c>
       <c r="H213" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I213" t="s">
         <v>54</v>
       </c>
       <c r="J213" t="s">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="K213" t="s">
         <v>66</v>
@@ -15524,10 +15531,10 @@
         <v>16</v>
       </c>
       <c r="O213" s="3" t="s">
-        <v>1401</v>
+        <v>1396</v>
       </c>
       <c r="P213" s="3" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="Q213" s="3" t="s">
         <v>13</v>
@@ -15536,10 +15543,10 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="19" t="s">
-        <v>1402</v>
+        <v>1397</v>
       </c>
       <c r="B214" t="s">
-        <v>1369</v>
+        <v>1364</v>
       </c>
       <c r="G214">
         <v>2</v>
@@ -15551,10 +15558,10 @@
         <v>54</v>
       </c>
       <c r="N214" s="3" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="O214" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="P214" s="3" t="s">
         <v>17</v>
@@ -15564,31 +15571,31 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="19" t="s">
-        <v>1404</v>
+        <v>1399</v>
       </c>
       <c r="B215" t="s">
-        <v>1363</v>
+        <v>1358</v>
       </c>
       <c r="D215" t="s">
-        <v>1405</v>
+        <v>1400</v>
       </c>
       <c r="E215" t="s">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="F215" t="s">
-        <v>1407</v>
+        <v>1402</v>
       </c>
       <c r="G215">
         <v>2</v>
       </c>
       <c r="H215" t="s">
-        <v>1408</v>
+        <v>1403</v>
       </c>
       <c r="I215" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="J215" t="s">
-        <v>1409</v>
+        <v>1404</v>
       </c>
       <c r="K215" t="s">
         <v>66</v>
@@ -15600,44 +15607,44 @@
         <v>18</v>
       </c>
       <c r="N215" s="3" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="O215" s="3" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="P215" s="3" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="Q215" s="3"/>
       <c r="R215" s="3"/>
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="19" t="s">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="B216" t="s">
-        <v>1411</v>
+        <v>1406</v>
       </c>
       <c r="C216" t="s">
-        <v>1412</v>
+        <v>1407</v>
       </c>
       <c r="D216" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="E216" t="s">
-        <v>1414</v>
+        <v>1409</v>
       </c>
       <c r="G216">
         <v>3</v>
       </c>
       <c r="H216" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I216" t="s">
         <v>64</v>
       </c>
       <c r="J216" t="s">
-        <v>1415</v>
+        <v>1410</v>
       </c>
       <c r="K216" t="s">
         <v>66</v>
@@ -15649,43 +15656,43 @@
         <v>8</v>
       </c>
       <c r="N216" s="3" t="s">
-        <v>1416</v>
+        <v>1411</v>
       </c>
       <c r="O216" s="3" t="s">
-        <v>1417</v>
+        <v>1412</v>
       </c>
       <c r="P216" s="3" t="s">
-        <v>1403</v>
+        <v>1398</v>
       </c>
       <c r="Q216" s="3" t="s">
-        <v>1418</v>
+        <v>1413</v>
       </c>
       <c r="R216" s="3"/>
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" s="19" t="s">
-        <v>1419</v>
+        <v>1414</v>
       </c>
       <c r="B217" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D217" t="s">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="F217" t="s">
-        <v>1421</v>
+        <v>1416</v>
       </c>
       <c r="G217">
         <v>2</v>
       </c>
       <c r="H217" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I217" t="s">
         <v>54</v>
       </c>
       <c r="J217" t="s">
-        <v>1422</v>
+        <v>1417</v>
       </c>
       <c r="K217" t="s">
         <v>66</v>
@@ -15697,13 +15704,13 @@
         <v>20</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="O217" s="3" t="s">
         <v>12</v>
       </c>
       <c r="P217" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="Q217" s="3" t="s">
         <v>13</v>
@@ -15712,25 +15719,25 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" s="19" t="s">
-        <v>1423</v>
+        <v>1418</v>
       </c>
       <c r="B218" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="D218" t="s">
-        <v>1424</v>
+        <v>1419</v>
       </c>
       <c r="G218">
         <v>2</v>
       </c>
       <c r="H218" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I218" t="s">
         <v>54</v>
       </c>
       <c r="J218" t="s">
-        <v>1425</v>
+        <v>1420</v>
       </c>
       <c r="K218" t="s">
         <v>66</v>
@@ -15742,13 +15749,13 @@
         <v>20</v>
       </c>
       <c r="N218" s="3" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="O218" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P218" s="3" t="s">
-        <v>1426</v>
+        <v>1421</v>
       </c>
       <c r="Q218" s="3" t="s">
         <v>13</v>
@@ -15757,22 +15764,22 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" s="19" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B219" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D219" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F219" t="s">
         <v>1427</v>
-      </c>
-      <c r="B219" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C219" t="s">
-        <v>1429</v>
-      </c>
-      <c r="D219" t="s">
-        <v>1430</v>
-      </c>
-      <c r="E219" t="s">
-        <v>1431</v>
-      </c>
-      <c r="F219" t="s">
-        <v>1432</v>
       </c>
       <c r="G219">
         <v>0.5</v>
@@ -15784,7 +15791,7 @@
         <v>64</v>
       </c>
       <c r="J219" t="s">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="K219" t="s">
         <v>66</v>
@@ -15796,7 +15803,7 @@
         <v>25</v>
       </c>
       <c r="N219" s="3" t="s">
-        <v>1434</v>
+        <v>1429</v>
       </c>
       <c r="O219" s="3" t="s">
         <v>19</v>
@@ -15809,22 +15816,22 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" s="19" t="s">
-        <v>1435</v>
+        <v>1430</v>
       </c>
       <c r="B220" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C220" t="s">
-        <v>1436</v>
+        <v>1431</v>
       </c>
       <c r="D220" t="s">
-        <v>1437</v>
+        <v>1432</v>
       </c>
       <c r="E220" t="s">
-        <v>1438</v>
+        <v>1433</v>
       </c>
       <c r="F220" t="s">
-        <v>1439</v>
+        <v>1434</v>
       </c>
       <c r="G220">
         <v>1.5</v>
@@ -15833,10 +15840,10 @@
         <v>64</v>
       </c>
       <c r="J220" t="s">
-        <v>1440</v>
+        <v>1435</v>
       </c>
       <c r="K220" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L220">
         <v>3</v>
@@ -15848,7 +15855,7 @@
         <v>19</v>
       </c>
       <c r="O220" s="3" t="s">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="P220" s="3" t="s">
         <v>25</v>
@@ -15860,19 +15867,19 @@
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="19" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="B221" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="D221" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="E221" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="F221" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="G221">
         <v>1.5</v>
@@ -15884,7 +15891,7 @@
         <v>64</v>
       </c>
       <c r="J221" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K221" t="s">
         <v>66</v>
@@ -15896,37 +15903,37 @@
         <v>20</v>
       </c>
       <c r="N221" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O221" s="3" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="P221" s="3" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="Q221" s="3" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="R221" s="3"/>
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="19" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="B222" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C222" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="D222" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="E222" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="F222" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="G222">
         <v>1.5</v>
@@ -15935,7 +15942,7 @@
         <v>64</v>
       </c>
       <c r="J222" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K222" t="s">
         <v>66</v>
@@ -15947,16 +15954,16 @@
         <v>15</v>
       </c>
       <c r="N222" s="3" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="P222" s="3" t="s">
         <v>100</v>
       </c>
       <c r="Q222" s="3" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="R222" s="3" t="s">
         <v>119</v>
@@ -15964,16 +15971,16 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" s="19" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="B223" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="C223" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="D223" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="G223">
         <v>0.2</v>
@@ -15994,13 +16001,13 @@
         <v>3</v>
       </c>
       <c r="O223" s="3" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="P223" s="3" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="Q223" s="3" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="R223" s="3"/>
     </row>
